--- a/smote_Result_sheet_pcos.xlsx
+++ b/smote_Result_sheet_pcos.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,7 +64,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -81,18 +81,8 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,10 +164,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -215,71 +205,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -307,7 +297,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -330,11 +320,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -343,13 +333,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +349,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -368,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +367,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -385,10 +375,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -458,30 +448,19 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="7" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1" s="7">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Threshold value</t>
@@ -548,1361 +527,1361 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="114" customHeight="1">
+    <row r="2" ht="114" customHeight="1" s="7">
       <c r="A2" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.88      0.88       104
-           1       0.79      0.78      0.78        58
-    accuracy                           0.85       162
-   macro avg       0.83      0.83      0.83       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.87      0.83      0.85       110
+           1       0.86      0.89      0.87       129
+    accuracy                           0.86       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.86      0.86      0.86       239
 </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.85      0.87       110
-           1       0.72      0.79      0.75        52
-    accuracy                           0.83       162
-   macro avg       0.81      0.82      0.81       162
-weighted avg       0.84      0.83      0.84       162
+           0       0.90      0.80      0.85       117
+           1       0.83      0.91      0.87       122
+    accuracy                           0.86       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.86      0.86      0.86       239
 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.69      0.71       111
-           1       0.40      0.45      0.43        51
-    accuracy                           0.62       162
-   macro avg       0.57      0.57      0.57       162
-weighted avg       0.63      0.62      0.62       162
+           0       0.73      0.63      0.68       122
+           1       0.66      0.76      0.71       117
+    accuracy                           0.69       239
+   macro avg       0.70      0.70      0.69       239
+weighted avg       0.70      0.69      0.69       239
 </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.86      0.88       112
-         1.0       0.72      0.82      0.77        50
-    accuracy                           0.85       162
-   macro avg       0.82      0.84      0.83       162
-weighted avg       0.85      0.85      0.85       162
+         0.0       0.91      0.79      0.85       122
+         1.0       0.81      0.92      0.86       117
+    accuracy                           0.85       239
+   macro avg       0.86      0.85      0.85       239
+weighted avg       0.86      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.83      0.85       105
-           1       0.71      0.79      0.75        57
-    accuracy                           0.81       162
-   macro avg       0.80      0.81      0.80       162
-weighted avg       0.82      0.81      0.82       162
+           0       0.71      0.83      0.77       105
+           1       0.85      0.74      0.79       134
+    accuracy                           0.78       239
+   macro avg       0.78      0.78      0.78       239
+weighted avg       0.79      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.98      0.73      0.84       141
-           1       0.33      0.90      0.49        21
-    accuracy                           0.75       162
-   macro avg       0.66      0.82      0.66       162
-weighted avg       0.90      0.75      0.79       162
+           0       0.98      0.59      0.74       175
+           1       0.46      0.97      0.63        64
+    accuracy                           0.69       239
+   macro avg       0.72      0.78      0.68       239
+weighted avg       0.84      0.69      0.71       239
 </t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.81      0.87       121
-           1       0.60      0.83      0.69        41
-    accuracy                           0.81       162
-   macro avg       0.76      0.82      0.78       162
-weighted avg       0.85      0.81      0.82       162
+           0       0.93      0.69      0.79       142
+           1       0.67      0.93      0.78        97
+    accuracy                           0.79       239
+   macro avg       0.80      0.81      0.79       239
+weighted avg       0.83      0.79      0.79       239
 </t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.90      0.89       105
-           1       0.80      0.77      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.84      0.83      0.84       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.80      0.90      0.85       105
+           1       0.91      0.83      0.87       134
+    accuracy                           0.86       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.86      0.86      0.86       239
 </t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.94      0.89       105
-           1       0.86      0.67      0.75        57
-    accuracy                           0.85       162
-   macro avg       0.85      0.80      0.82       162
-weighted avg       0.85      0.85      0.84       162
+           0       0.73      0.94      0.83       105
+           1       0.94      0.73      0.82       134
+    accuracy                           0.82       239
+   macro avg       0.84      0.84      0.82       239
+weighted avg       0.85      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.95      0.88       105
-           1       0.88      0.61      0.72        57
-    accuracy                           0.83       162
-   macro avg       0.85      0.78      0.80       162
-weighted avg       0.84      0.83      0.82       162
+           0       0.71      0.95      0.81       105
+           1       0.95      0.69      0.80       134
+    accuracy                           0.81       239
+   macro avg       0.83      0.82      0.81       239
+weighted avg       0.84      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.79      0.84       117
-           1       0.58      0.73      0.65        45
-    accuracy                           0.78       162
-   macro avg       0.73      0.76      0.74       162
-weighted avg       0.80      0.78      0.78       162
+           0       0.89      0.69      0.78       135
+           1       0.69      0.88      0.77       104
+    accuracy                           0.77       239
+   macro avg       0.79      0.79      0.77       239
+weighted avg       0.80      0.77      0.77       239
 </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="114" customHeight="1">
+    <row r="3" ht="114" customHeight="1" s="7">
       <c r="A3" s="3" t="n">
         <v>0.2</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.89      0.85        97
-           1       0.81      0.71      0.75        65
-    accuracy                           0.81       162
-   macro avg       0.81      0.80      0.80       162
-weighted avg       0.81      0.81      0.81       162
+           0       0.87      0.76      0.81       119
+           1       0.79      0.88      0.83       120
+    accuracy                           0.82       239
+   macro avg       0.83      0.82      0.82       239
+weighted avg       0.83      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.88      0.89       107
-           1       0.77      0.80      0.79        55
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.84       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.90      0.80      0.85       117
+           1       0.83      0.91      0.87       122
+    accuracy                           0.86       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.86      0.86      0.86       239
 </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.73      0.75       109
-           1       0.49      0.53      0.51        53
-    accuracy                           0.67       162
-   macro avg       0.63      0.63      0.63       162
-weighted avg       0.67      0.67      0.67       162
+           0       0.76      0.67      0.71       119
+           1       0.71      0.79      0.75       120
+    accuracy                           0.73       239
+   macro avg       0.74      0.73      0.73       239
+weighted avg       0.74      0.73      0.73       239
 </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.94      0.85      0.90       116
-         1.0       0.70      0.87      0.78        46
-    accuracy                           0.86       162
-   macro avg       0.82      0.86      0.84       162
-weighted avg       0.87      0.86      0.86       162
+         0.0       0.94      0.79      0.86       125
+         1.0       0.81      0.95      0.87       114
+    accuracy                           0.87       239
+   macro avg       0.87      0.87      0.87       239
+weighted avg       0.88      0.87      0.87       239
 </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.94      0.91       105
-           1       0.88      0.75      0.81        57
-    accuracy                           0.88       162
-   macro avg       0.88      0.85      0.86       162
-weighted avg       0.88      0.88      0.87       162
+           0       0.76      0.94      0.84       105
+           1       0.94      0.77      0.85       134
+    accuracy                           0.85       239
+   macro avg       0.85      0.86      0.85       239
+weighted avg       0.86      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.97      0.77      0.86       133
-           1       0.46      0.90      0.60        29
-    accuracy                           0.79       162
-   macro avg       0.71      0.83      0.73       162
-weighted avg       0.88      0.79      0.81       162
+           0       0.97      0.63      0.76       163
+           1       0.54      0.96      0.70        76
+    accuracy                           0.73       239
+   macro avg       0.76      0.79      0.73       239
+weighted avg       0.84      0.73      0.74       239
 </t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.83      0.88       121
-           1       0.63      0.88      0.73        41
-    accuracy                           0.84       162
-   macro avg       0.79      0.85      0.81       162
-weighted avg       0.87      0.84      0.85       162
+           0       0.95      0.72      0.82       138
+           1       0.72      0.95      0.82       101
+    accuracy                           0.82       239
+   macro avg       0.83      0.84      0.82       239
+weighted avg       0.85      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.92      0.90       105
-           1       0.84      0.75      0.80        57
-    accuracy                           0.86       162
-   macro avg       0.86      0.84      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.80      0.92      0.86       105
+           1       0.93      0.82      0.87       134
+    accuracy                           0.87       239
+   macro avg       0.87      0.87      0.87       239
+weighted avg       0.87      0.87      0.87       239
 </t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.97      0.91       105
-           1       0.93      0.70      0.80        57
-    accuracy                           0.88       162
-   macro avg       0.89      0.84      0.86       162
-weighted avg       0.88      0.88      0.87       162
+           0       0.74      0.97      0.84       105
+           1       0.97      0.74      0.84       134
+    accuracy                           0.84       239
+   macro avg       0.86      0.86      0.84       239
+weighted avg       0.87      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.94      0.87       105
-           1       0.85      0.60      0.70        57
-    accuracy                           0.82       162
-   macro avg       0.83      0.77      0.79       162
-weighted avg       0.83      0.82      0.81       162
+           0       0.70      0.94      0.80       105
+           1       0.94      0.68      0.79       134
+    accuracy                           0.79       239
+   macro avg       0.82      0.81      0.79       239
+weighted avg       0.83      0.79      0.79       239
 </t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.70      0.92      0.79        79
-           1       0.89      0.61      0.73        83
-    accuracy                           0.77       162
-   macro avg       0.79      0.77      0.76       162
-weighted avg       0.80      0.77      0.76       162
+           0       0.70      0.91      0.79        80
+           1       0.95      0.80      0.87       159
+    accuracy                           0.84       239
+   macro avg       0.82      0.86      0.83       239
+weighted avg       0.86      0.84      0.84       239
 </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="114" customHeight="1">
+    <row r="4" ht="114" customHeight="1" s="7">
       <c r="A4" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.84      0.84       106
-           1       0.70      0.71      0.71        56
-    accuracy                           0.80       162
-   macro avg       0.77      0.78      0.78       162
-weighted avg       0.80      0.80      0.80       162
+           0       0.84      0.72      0.78       122
+           1       0.75      0.85      0.80       117
+    accuracy                           0.79       239
+   macro avg       0.79      0.79      0.79       239
+weighted avg       0.79      0.79      0.79       239
 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.84      0.85       108
-           1       0.70      0.74      0.72        54
-    accuracy                           0.81       162
-   macro avg       0.78      0.79      0.79       162
-weighted avg       0.81      0.81      0.81       162
+           0       0.87      0.77      0.82       118
+           1       0.80      0.88      0.84       121
+    accuracy                           0.83       239
+   macro avg       0.83      0.83      0.83       239
+weighted avg       0.83      0.83      0.83       239
 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.79      0.79       107
-           1       0.60      0.62      0.61        55
-    accuracy                           0.73       162
-   macro avg       0.70      0.70      0.70       162
-weighted avg       0.73      0.73      0.73       162
+           0       0.80      0.73      0.76       115
+           1       0.77      0.83      0.80       124
+    accuracy                           0.78       239
+   macro avg       0.78      0.78      0.78       239
+weighted avg       0.78      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.87      0.90       113
-         1.0       0.74      0.86      0.79        49
-    accuracy                           0.86       162
-   macro avg       0.84      0.86      0.85       162
-weighted avg       0.87      0.86      0.87       162
+         0.0       0.93      0.82      0.87       119
+         1.0       0.84      0.94      0.89       120
+    accuracy                           0.88       239
+   macro avg       0.89      0.88      0.88       239
+weighted avg       0.89      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.91      0.88       105
-           1       0.82      0.70      0.75        57
-    accuracy                           0.84       162
-   macro avg       0.83      0.81      0.82       162
-weighted avg       0.84      0.84      0.84       162
+           0       0.75      0.91      0.82       105
+           1       0.92      0.76      0.83       134
+    accuracy                           0.83       239
+   macro avg       0.83      0.84      0.83       239
+weighted avg       0.84      0.83      0.83       239
 </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.97      0.80      0.88       127
-           1       0.56      0.91      0.70        35
-    accuracy                           0.83       162
-   macro avg       0.77      0.86      0.79       162
-weighted avg       0.88      0.83      0.84       162
+           0       0.97      0.67      0.79       153
+           1       0.62      0.97      0.75        86
+    accuracy                           0.77       239
+   macro avg       0.80      0.82      0.77       239
+weighted avg       0.84      0.77      0.78       239
 </t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.86      0.91       117
-           1       0.72      0.91      0.80        45
-    accuracy                           0.88       162
-   macro avg       0.84      0.89      0.86       162
-weighted avg       0.89      0.88      0.88       162
+           0       0.96      0.74      0.84       136
+           1       0.74      0.96      0.84       103
+    accuracy                           0.84       239
+   macro avg       0.85      0.85      0.84       239
+weighted avg       0.87      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.91      0.88       105
-           1       0.82      0.72      0.77        57
-    accuracy                           0.85       162
-   macro avg       0.84      0.82      0.83       162
-weighted avg       0.84      0.85      0.84       162
+           0       0.81      0.91      0.86       105
+           1       0.93      0.84      0.88       134
+    accuracy                           0.87       239
+   macro avg       0.87      0.88      0.87       239
+weighted avg       0.88      0.87      0.87       239
 </t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.96      0.91       105
-           1       0.91      0.72      0.80        57
-    accuracy                           0.88       162
-   macro avg       0.89      0.84      0.86       162
-weighted avg       0.88      0.88      0.87       162
+           0       0.76      0.96      0.85       105
+           1       0.96      0.76      0.85       134
+    accuracy                           0.85       239
+   macro avg       0.86      0.86      0.85       239
+weighted avg       0.87      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.93      0.87       105
-           1       0.83      0.60      0.69        57
-    accuracy                           0.81       162
-   macro avg       0.82      0.76      0.78       162
-weighted avg       0.82      0.81      0.81       162
+           0       0.70      0.93      0.80       105
+           1       0.93      0.68      0.78       134
+    accuracy                           0.79       239
+   macro avg       0.81      0.81      0.79       239
+weighted avg       0.83      0.79      0.79       239
 </t>
         </is>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.88      0.82        91
-           1       0.81      0.65      0.72        71
-    accuracy                           0.78       162
-   macro avg       0.78      0.76      0.77       162
-weighted avg       0.78      0.78      0.77       162
+           0       0.76      0.78      0.77       102
+           1       0.84      0.82      0.83       137
+    accuracy                           0.80       239
+   macro avg       0.80      0.80      0.80       239
+weighted avg       0.80      0.80      0.80       239
 </t>
         </is>
       </c>
     </row>
-    <row r="5" ht="114" customHeight="1">
+    <row r="5" ht="114" customHeight="1" s="7">
       <c r="A5" s="3" t="n">
         <v>0.4</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.85      0.85       105
-           1       0.72      0.72      0.72        57
-    accuracy                           0.80       162
-   macro avg       0.78      0.78      0.78       162
-weighted avg       0.80      0.80      0.80       162
+           0       0.84      0.77      0.80       114
+           1       0.81      0.86      0.83       125
+    accuracy                           0.82       239
+   macro avg       0.82      0.82      0.82       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.89      0.87       101
-           1       0.81      0.75      0.78        61
-    accuracy                           0.84       162
-   macro avg       0.83      0.82      0.83       162
-weighted avg       0.84      0.84      0.84       162
+           0       0.86      0.79      0.82       114
+           1       0.82      0.88      0.85       125
+    accuracy                           0.84       239
+   macro avg       0.84      0.83      0.84       239
+weighted avg       0.84      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.77      0.80       113
-           1       0.54      0.63      0.58        49
-    accuracy                           0.73       162
-   macro avg       0.69      0.70      0.69       162
-weighted avg       0.74      0.73      0.73       162
+           0       0.83      0.72      0.77       121
+           1       0.75      0.85      0.79       118
+    accuracy                           0.78       239
+   macro avg       0.79      0.78      0.78       239
+weighted avg       0.79      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.87      0.89       110
-         1.0       0.75      0.83      0.79        52
-    accuracy                           0.86       162
-   macro avg       0.83      0.85      0.84       162
-weighted avg       0.86      0.86      0.86       162
+         0.0       0.91      0.82      0.86       117
+         1.0       0.84      0.93      0.88       122
+    accuracy                           0.87       239
+   macro avg       0.88      0.87      0.87       239
+weighted avg       0.88      0.87      0.87       239
 </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.90      0.90       105
-           1       0.82      0.82      0.82        57
-    accuracy                           0.88       162
-   macro avg       0.86      0.86      0.86       162
-weighted avg       0.88      0.88      0.88       162
+           0       0.77      0.90      0.83       105
+           1       0.91      0.78      0.84       134
+    accuracy                           0.84       239
+   macro avg       0.84      0.84      0.84       239
+weighted avg       0.85      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.79      0.86       124
-           1       0.54      0.82      0.65        38
-    accuracy                           0.80       162
-   macro avg       0.74      0.80      0.75       162
-weighted avg       0.84      0.80      0.81       162
+           0       0.93      0.65      0.77       150
+           1       0.61      0.92      0.74        89
+    accuracy                           0.75       239
+   macro avg       0.77      0.79      0.75       239
+weighted avg       0.81      0.75      0.76       239
 </t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.86      0.89       111
-           1       0.74      0.82      0.78        51
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.83       162
-weighted avg       0.86      0.85      0.85       162
+           0       0.91      0.73      0.81       131
+           1       0.74      0.92      0.82       108
+    accuracy                           0.82       239
+   macro avg       0.83      0.82      0.82       239
+weighted avg       0.83      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.90      0.90       105
-           1       0.81      0.81      0.81        57
-    accuracy                           0.86       162
-   macro avg       0.85      0.85      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.84      0.90      0.87       105
+           1       0.91      0.87      0.89       134
+    accuracy                           0.88       239
+   macro avg       0.88      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.91      0.90       105
-           1       0.83      0.77      0.80        57
-    accuracy                           0.86       162
-   macro avg       0.86      0.84      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.77      0.91      0.83       105
+           1       0.92      0.78      0.85       134
+    accuracy                           0.84       239
+   macro avg       0.84      0.85      0.84       239
+weighted avg       0.85      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.92      0.91       105
-           1       0.85      0.79      0.82        57
-    accuracy                           0.88       162
-   macro avg       0.87      0.86      0.86       162
-weighted avg       0.88      0.88      0.88       162
+           0       0.77      0.92      0.84       105
+           1       0.93      0.78      0.85       134
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.86      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.89      0.85        97
-           1       0.81      0.71      0.75        65
-    accuracy                           0.81       162
-   macro avg       0.81      0.80      0.80       162
-weighted avg       0.81      0.81      0.81       162
+           0       0.82      0.77      0.80       111
+           1       0.81      0.85      0.83       128
+    accuracy                           0.82       239
+   macro avg       0.82      0.81      0.81       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
     </row>
-    <row r="6" ht="114" customHeight="1">
+    <row r="6" ht="114" customHeight="1" s="7">
       <c r="A6" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.80      0.83       113
-           1       0.60      0.69      0.64        49
-    accuracy                           0.77       162
-   macro avg       0.73      0.75      0.73       162
-weighted avg       0.78      0.77      0.77       162
+           0       0.87      0.75      0.81       121
+           1       0.78      0.88      0.83       118
+    accuracy                           0.82       239
+   macro avg       0.82      0.82      0.82       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.87      0.84        99
-           1       0.77      0.70      0.73        63
-    accuracy                           0.80       162
-   macro avg       0.80      0.78      0.79       162
-weighted avg       0.80      0.80      0.80       162
+           0       0.82      0.77      0.79       112
+           1       0.81      0.85      0.83       127
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.81      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.77      0.80       113
-           1       0.54      0.63      0.58        49
-    accuracy                           0.73       162
-   macro avg       0.69      0.70      0.69       162
-weighted avg       0.74      0.73      0.73       162
+           0       0.83      0.71      0.77       122
+           1       0.74      0.85      0.79       117
+    accuracy                           0.78       239
+   macro avg       0.78      0.78      0.78       239
+weighted avg       0.78      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.84      0.91      0.87        97
-         1.0       0.84      0.74      0.79        65
-    accuracy                           0.84       162
-   macro avg       0.84      0.82      0.83       162
-weighted avg       0.84      0.84      0.84       162
+         0.0       0.84      0.87      0.85       101
+         1.0       0.90      0.88      0.89       138
+    accuracy                           0.87       239
+   macro avg       0.87      0.87      0.87       239
+weighted avg       0.88      0.87      0.87       239
 </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.87      0.88       105
-           1       0.77      0.81      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.83       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.70      0.87      0.77       105
+           1       0.87      0.71      0.78       134
+    accuracy                           0.78       239
+   macro avg       0.79      0.79      0.78       239
+weighted avg       0.80      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.90      0.89       102
-           1       0.82      0.78      0.80        60
-    accuracy                           0.86       162
-   macro avg       0.85      0.84      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.88      0.74      0.80       125
+           1       0.75      0.89      0.81       114
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.82      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.93      0.89        96
-           1       0.88      0.76      0.81        66
-    accuracy                           0.86       162
-   macro avg       0.86      0.84      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.85      0.75      0.79       119
+           1       0.78      0.87      0.82       120
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.81      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.81      0.85       105
-           1       0.70      0.81      0.75        57
-    accuracy                           0.81       162
-   macro avg       0.79      0.81      0.80       162
-weighted avg       0.82      0.81      0.81       162
+           0       0.83      0.81      0.82       105
+           1       0.85      0.87      0.86       134
+    accuracy                           0.85       239
+   macro avg       0.84      0.84      0.84       239
+weighted avg       0.84      0.85      0.84       239
 </t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.82      0.86       105
-           1       0.72      0.86      0.78        57
-    accuracy                           0.83       162
-   macro avg       0.82      0.84      0.82       162
-weighted avg       0.85      0.83      0.84       162
+           0       0.75      0.82      0.78       105
+           1       0.85      0.78      0.81       134
+    accuracy                           0.80       239
+   macro avg       0.80      0.80      0.80       239
+weighted avg       0.80      0.80      0.80       239
 </t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.85      0.88       105
-           1       0.75      0.84      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.84       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.75      0.85      0.79       105
+           1       0.87      0.78      0.82       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.81      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.92      0.81        84
-           1       0.88      0.64      0.74        78
-    accuracy                           0.78       162
-   macro avg       0.81      0.78      0.78       162
-weighted avg       0.80      0.78      0.78       162
+           0       0.73      0.79      0.76        98
+           1       0.84      0.80      0.82       141
+    accuracy                           0.79       239
+   macro avg       0.79      0.79      0.79       239
+weighted avg       0.80      0.79      0.80       239
 </t>
         </is>
       </c>
     </row>
-    <row r="7" ht="114" customHeight="1">
+    <row r="7" ht="114" customHeight="1" s="7">
       <c r="A7" s="3" t="n">
         <v>0.6</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.84      0.81        96
-           1       0.74      0.64      0.68        66
-    accuracy                           0.76       162
-   macro avg       0.75      0.74      0.74       162
-weighted avg       0.76      0.76      0.76       162
+           0       0.79      0.77      0.78       108
+           1       0.81      0.83      0.82       131
+    accuracy                           0.80       239
+   macro avg       0.80      0.80      0.80       239
+weighted avg       0.80      0.80      0.80       239
 </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.91      0.87        97
-           1       0.84      0.74      0.79        65
-    accuracy                           0.84       162
-   macro avg       0.84      0.82      0.83       162
-weighted avg       0.84      0.84      0.84       162
+           0       0.84      0.81      0.82       109
+           1       0.84      0.87      0.86       130
+    accuracy                           0.84       239
+   macro avg       0.84      0.84      0.84       239
+weighted avg       0.84      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.78      0.80       112
-           1       0.56      0.64      0.60        50
-    accuracy                           0.73       162
-   macro avg       0.69      0.71      0.70       162
-weighted avg       0.75      0.73      0.74       162
+           0       0.83      0.71      0.76       123
+           1       0.73      0.84      0.78       116
+    accuracy                           0.77       239
+   macro avg       0.78      0.78      0.77       239
+weighted avg       0.78      0.77      0.77       239
 </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.84      0.92      0.88        96
-         1.0       0.86      0.74      0.80        66
-    accuracy                           0.85       162
-   macro avg       0.85      0.83      0.84       162
-weighted avg       0.85      0.85      0.84       162
+         0.0       0.84      0.88      0.86       100
+         1.0       0.91      0.88      0.89       139
+    accuracy                           0.88       239
+   macro avg       0.87      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.89      0.88       105
-           1       0.78      0.75      0.77        57
-    accuracy                           0.84       162
-   macro avg       0.83      0.82      0.82       162
-weighted avg       0.84      0.84      0.84       162
+           0       0.69      0.89      0.78       105
+           1       0.88      0.69      0.77       134
+    accuracy                           0.77       239
+   macro avg       0.79      0.79      0.77       239
+weighted avg       0.80      0.77      0.77       239
 </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.85      0.87       109
-           1       0.72      0.77      0.75        53
-    accuracy                           0.83       162
-   macro avg       0.80      0.81      0.81       162
-weighted avg       0.83      0.83      0.83       162
+           0       0.89      0.70      0.78       133
+           1       0.70      0.89      0.78       106
+    accuracy                           0.78       239
+   macro avg       0.79      0.79      0.78       239
+weighted avg       0.80      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.90      0.87        99
-           1       0.82      0.75      0.78        63
-    accuracy                           0.84       162
-   macro avg       0.84      0.82      0.83       162
-weighted avg       0.84      0.84      0.84       162
+           0       0.85      0.74      0.79       120
+           1       0.77      0.87      0.81       119
+    accuracy                           0.80       239
+   macro avg       0.81      0.80      0.80       239
+weighted avg       0.81      0.80      0.80       239
 </t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.81      0.85       105
-           1       0.71      0.84      0.77        57
-    accuracy                           0.82       162
-   macro avg       0.81      0.83      0.81       162
-weighted avg       0.83      0.82      0.82       162
+           0       0.87      0.81      0.84       105
+           1       0.86      0.90      0.88       134
+    accuracy                           0.86       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.86      0.86      0.86       239
 </t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.84      0.86       105
-           1       0.73      0.81      0.77        57
-    accuracy                           0.83       162
-   macro avg       0.81      0.82      0.81       162
-weighted avg       0.83      0.83      0.83       162
+           0       0.73      0.84      0.78       105
+           1       0.86      0.76      0.81       134
+    accuracy                           0.79       239
+   macro avg       0.80      0.80      0.79       239
+weighted avg       0.80      0.79      0.80       239
 </t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.86      0.88       105
-           1       0.76      0.82      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.83       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.74      0.86      0.79       105
+           1       0.87      0.76      0.81       134
+    accuracy                           0.80       239
+   macro avg       0.80      0.81      0.80       239
+weighted avg       0.81      0.80      0.80       239
 </t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.93      0.83        84
-           1       0.89      0.65      0.76        78
-    accuracy                           0.80       162
-   macro avg       0.82      0.79      0.79       162
-weighted avg       0.82      0.80      0.79       162
+           0       0.74      0.78      0.76       100
+           1       0.84      0.81      0.82       139
+    accuracy                           0.79       239
+   macro avg       0.79      0.79      0.79       239
+weighted avg       0.80      0.79      0.80       239
 </t>
         </is>
       </c>
     </row>
-    <row r="8" ht="114" customHeight="1">
+    <row r="8" ht="114" customHeight="1" s="7">
       <c r="A8" s="3" t="n">
         <v>0.7</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.77      0.75        99
-           1       0.60      0.54      0.57        63
-    accuracy                           0.68       162
-   macro avg       0.66      0.65      0.66       162
-weighted avg       0.67      0.68      0.68       162
+           0       0.75      0.72      0.73       110
+           1       0.77      0.80      0.78       129
+    accuracy                           0.76       239
+   macro avg       0.76      0.76      0.76       239
+weighted avg       0.76      0.76      0.76       239
 </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.92      0.88        96
-           1       0.86      0.74      0.80        66
-    accuracy                           0.85       162
-   macro avg       0.85      0.83      0.84       162
-weighted avg       0.85      0.85      0.84       162
+           0       0.84      0.82      0.83       107
+           1       0.86      0.87      0.86       132
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.85      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.79      0.78       102
-           1       0.63      0.60      0.62        60
-    accuracy                           0.72       162
-   macro avg       0.70      0.70      0.70       162
-weighted avg       0.72      0.72      0.72       162
+           0       0.77      0.74      0.75       110
+           1       0.78      0.81      0.80       129
+    accuracy                           0.78       239
+   macro avg       0.78      0.78      0.78       239
+weighted avg       0.78      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.81      0.89      0.85        95
-         1.0       0.82      0.70      0.76        67
-    accuracy                           0.81       162
-   macro avg       0.82      0.80      0.80       162
-weighted avg       0.82      0.81      0.81       162
+         0.0       0.81      0.84      0.83       101
+         1.0       0.88      0.86      0.87       138
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.85      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.85      0.88       105
-           1       0.75      0.84      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.84       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.75      0.85      0.79       105
+           1       0.87      0.78      0.82       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.81      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.91      0.89       100
-           1       0.84      0.77      0.81        62
-    accuracy                           0.86       162
-   macro avg       0.85      0.84      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.87      0.76      0.81       120
+           1       0.78      0.88      0.83       119
+    accuracy                           0.82       239
+   macro avg       0.83      0.82      0.82       239
+weighted avg       0.83      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.94      0.89        95
-           1       0.89      0.76      0.82        67
-    accuracy                           0.86       162
-   macro avg       0.87      0.85      0.86       162
-weighted avg       0.87      0.86      0.86       162
+           0       0.85      0.77      0.81       115
+           1       0.81      0.87      0.84       124
+    accuracy                           0.82       239
+   macro avg       0.83      0.82      0.82       239
+weighted avg       0.83      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.79      0.82       105
-           1       0.66      0.75      0.70        57
-    accuracy                           0.78       162
-   macro avg       0.76      0.77      0.76       162
-weighted avg       0.79      0.78      0.78       162
+           0       0.80      0.79      0.79       105
+           1       0.84      0.84      0.84       134
+    accuracy                           0.82       239
+   macro avg       0.82      0.82      0.82       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.83      0.87       105
-           1       0.73      0.86      0.79        57
-    accuracy                           0.84       162
-   macro avg       0.82      0.84      0.83       162
-weighted avg       0.85      0.84      0.84       162
+           0       0.76      0.83      0.79       105
+           1       0.86      0.80      0.83       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.82      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.99      0.87       105
-           1       0.96      0.46      0.62        57
-    accuracy                           0.80       162
-   macro avg       0.87      0.72      0.74       162
-weighted avg       0.84      0.80      0.78       162
+           0       0.56      0.99      0.71       105
+           1       0.98      0.38      0.55       134
+    accuracy                           0.65       239
+   macro avg       0.77      0.69      0.63       239
+weighted avg       0.79      0.65      0.62       239
 </t>
         </is>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.88      0.89       105
-           1       0.78      0.82      0.80        57
-    accuracy                           0.86       162
-   macro avg       0.84      0.85      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.74      0.88      0.80       105
+           1       0.89      0.76      0.82       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.82      0.81       239
+weighted avg       0.82      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.94      0.81        80
-           1       0.91      0.63      0.75        82
-    accuracy                           0.78       162
-   macro avg       0.81      0.79      0.78       162
-weighted avg       0.81      0.78      0.78       162
+           0       0.71      0.79      0.75        95
+           1       0.85      0.79      0.82       144
+    accuracy                           0.79       239
+   macro avg       0.78      0.79      0.79       239
+weighted avg       0.80      0.79      0.79       239
 </t>
         </is>
       </c>
     </row>
-    <row r="9" ht="114" customHeight="1">
+    <row r="9" ht="114" customHeight="1" s="7">
       <c r="A9" s="3" t="n">
         <v>0.8</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.78      0.77       101
-           1       0.61      0.57      0.59        61
-    accuracy                           0.70       162
-   macro avg       0.68      0.68      0.68       162
-weighted avg       0.70      0.70      0.70       162
+           0       0.72      0.72      0.72       106
+           1       0.78      0.78      0.78       133
+    accuracy                           0.75       239
+   macro avg       0.75      0.75      0.75       239
+weighted avg       0.75      0.75      0.75       239
 </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.92      0.88        96
-           1       0.86      0.74      0.80        66
-    accuracy                           0.85       162
-   macro avg       0.85      0.83      0.84       162
-weighted avg       0.85      0.85      0.84       162
+           0       0.84      0.82      0.83       107
+           1       0.86      0.87      0.86       132
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.85      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.79      0.78       102
-           1       0.63      0.60      0.62        60
-    accuracy                           0.72       162
-   macro avg       0.70      0.70      0.70       162
-weighted avg       0.72      0.72      0.72       162
+           0       0.77      0.74      0.75       110
+           1       0.78      0.81      0.80       129
+    accuracy                           0.78       239
+   macro avg       0.78      0.78      0.78       239
+weighted avg       0.78      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.81      0.89      0.85        95
-         1.0       0.82      0.70      0.76        67
-    accuracy                           0.81       162
-   macro avg       0.82      0.80      0.80       162
-weighted avg       0.82      0.81      0.81       162
+         0.0       0.81      0.84      0.83       101
+         1.0       0.88      0.86      0.87       138
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.85      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.85      0.88       105
-           1       0.75      0.84      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.84       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.75      0.85      0.79       105
+           1       0.87      0.78      0.82       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.81      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.91      0.89       100
-           1       0.84      0.77      0.81        62
-    accuracy                           0.86       162
-   macro avg       0.85      0.84      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.87      0.76      0.81       120
+           1       0.78      0.88      0.83       119
+    accuracy                           0.82       239
+   macro avg       0.83      0.82      0.82       239
+weighted avg       0.83      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.94      0.89        95
-           1       0.89      0.76      0.82        67
-    accuracy                           0.86       162
-   macro avg       0.87      0.85      0.86       162
-weighted avg       0.87      0.86      0.86       162
+           0       0.85      0.77      0.81       115
+           1       0.81      0.87      0.84       124
+    accuracy                           0.82       239
+   macro avg       0.83      0.82      0.82       239
+weighted avg       0.83      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.79      0.82       105
-           1       0.66      0.75      0.70        57
-    accuracy                           0.78       162
-   macro avg       0.76      0.77      0.76       162
-weighted avg       0.79      0.78      0.78       162
+           0       0.80      0.79      0.79       105
+           1       0.84      0.84      0.84       134
+    accuracy                           0.82       239
+   macro avg       0.82      0.82      0.82       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.83      0.87       105
-           1       0.73      0.86      0.79        57
-    accuracy                           0.84       162
-   macro avg       0.82      0.84      0.83       162
-weighted avg       0.85      0.84      0.84       162
+           0       0.76      0.83      0.79       105
+           1       0.86      0.80      0.83       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.82      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.99      0.87       105
-           1       0.96      0.46      0.62        57
-    accuracy                           0.80       162
-   macro avg       0.87      0.72      0.74       162
-weighted avg       0.84      0.80      0.78       162
+           0       0.56      0.99      0.71       105
+           1       0.98      0.38      0.55       134
+    accuracy                           0.65       239
+   macro avg       0.77      0.69      0.63       239
+weighted avg       0.79      0.65      0.62       239
 </t>
         </is>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.88      0.89       105
-           1       0.78      0.82      0.80        57
-    accuracy                           0.86       162
-   macro avg       0.84      0.85      0.85       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.74      0.88      0.80       105
+           1       0.89      0.76      0.82       134
+    accuracy                           0.81       239
+   macro avg       0.81      0.82      0.81       239
+weighted avg       0.82      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.94      0.81        80
-           1       0.91      0.63      0.75        82
-    accuracy                           0.78       162
-   macro avg       0.81      0.79      0.78       162
-weighted avg       0.81      0.78      0.78       162
+           0       0.71      0.79      0.75        95
+           1       0.85      0.79      0.82       144
+    accuracy                           0.79       239
+   macro avg       0.78      0.79      0.79       239
+weighted avg       0.80      0.79      0.79       239
 </t>
         </is>
       </c>
     </row>
-    <row r="10" ht="114" customHeight="1">
+    <row r="10" ht="114" customHeight="1" s="7">
       <c r="A10" s="3" t="n">
         <v>0.9</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.67      0.62      0.65       112
-           1       0.26      0.30      0.28        50
-    accuracy                           0.52       162
-   macro avg       0.46      0.46      0.46       162
-weighted avg       0.54      0.52      0.53       162
+           0       0.66      0.56      0.60       124
+           1       0.59      0.69      0.63       115
+    accuracy                           0.62       239
+   macro avg       0.62      0.62      0.62       239
+weighted avg       0.62      0.62      0.62       239
 </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.69      0.78       138
-           1       0.25      0.58      0.35        24
-    accuracy                           0.67       162
-   macro avg       0.58      0.64      0.56       162
-weighted avg       0.81      0.67      0.72       162
+           0       0.90      0.50      0.65       189
+           1       0.30      0.80      0.43        50
+    accuracy                           0.56       239
+   macro avg       0.60      0.65      0.54       239
+weighted avg       0.78      0.56      0.60       239
 </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.69      0.74       124
-           1       0.32      0.47      0.38        38
-    accuracy                           0.64       162
-   macro avg       0.56      0.58      0.56       162
-weighted avg       0.69      0.64      0.66       162
+           0       0.81      0.62      0.70       137
+           1       0.61      0.80      0.69       102
+    accuracy                           0.70       239
+   macro avg       0.71      0.71      0.70       239
+weighted avg       0.73      0.70      0.70       239
 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.68      0.75       131
-         1.0       0.26      0.48      0.34        31
-    accuracy                           0.64       162
-   macro avg       0.56      0.58      0.55       162
-weighted avg       0.74      0.64      0.68       162
+         0.0       0.85      0.62      0.71       144
+         1.0       0.59      0.83      0.69        95
+    accuracy                           0.70       239
+   macro avg       0.72      0.72      0.70       239
+weighted avg       0.75      0.70      0.70       239
 </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.66      0.99      0.79       105
-           1       0.80      0.07      0.13        57
-    accuracy                           0.67       162
-   macro avg       0.73      0.53      0.46       162
-weighted avg       0.71      0.67      0.56       162
+           0       0.45      0.99      0.62       105
+           1       0.88      0.05      0.10       134
+    accuracy                           0.46       239
+   macro avg       0.66      0.52      0.36       239
+weighted avg       0.69      0.46      0.33       239
 </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.98      0.67      0.80       154
-           1       0.11      0.75      0.18         8
-    accuracy                           0.67       162
-   macro avg       0.54      0.71      0.49       162
-weighted avg       0.94      0.67      0.77       162
+           0       0.98      0.47      0.64       218
+           1       0.14      0.90      0.25        21
+    accuracy                           0.51       239
+   macro avg       0.56      0.69      0.44       239
+weighted avg       0.91      0.51      0.60       239
 </t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      0.67      0.80       157
-           1       0.09      1.00      0.16         5
-    accuracy                           0.68       162
-   macro avg       0.54      0.83      0.48       162
-weighted avg       0.97      0.68      0.78       162
+           0       1.00      0.47      0.64       222
+           1       0.13      1.00      0.23        17
+    accuracy                           0.51       239
+   macro avg       0.56      0.74      0.43       239
+weighted avg       0.94      0.51      0.61       239
 </t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.69      0.81      0.75       105
-           1       0.49      0.33      0.40        57
-    accuracy                           0.64       162
-   macro avg       0.59      0.57      0.57       162
-weighted avg       0.62      0.64      0.62       162
+           0       0.63      0.81      0.71       105
+           1       0.81      0.63      0.71       134
+    accuracy                           0.71       239
+   macro avg       0.72      0.72      0.71       239
+weighted avg       0.73      0.71      0.71       239
 </t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.66      0.99      0.79       105
-           1       0.80      0.07      0.13        57
-    accuracy                           0.67       162
-   macro avg       0.73      0.53      0.46       162
-weighted avg       0.71      0.67      0.56       162
+           0       0.45      0.99      0.62       105
+           1       0.88      0.05      0.10       134
+    accuracy                           0.46       239
+   macro avg       0.66      0.52      0.36       239
+weighted avg       0.69      0.46      0.33       239
 </t>
         </is>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.43      0.76      0.55        59
-           1       0.75      0.42      0.54       103
-    accuracy                           0.54       162
-   macro avg       0.59      0.59      0.54       162
-weighted avg       0.64      0.54      0.54       162
+           0       0.43      0.64      0.51        70
+           1       0.81      0.64      0.72       169
+    accuracy                           0.64       239
+   macro avg       0.62      0.64      0.62       239
+weighted avg       0.70      0.64      0.66       239
 </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="114" customHeight="1">
+    <row r="11" ht="114" customHeight="1" s="7">
       <c r="A11" s="3" t="n">
         <v>0.95</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.74      0.79       121
-           1       0.44      0.61      0.51        41
-    accuracy                           0.70       162
-   macro avg       0.64      0.67      0.65       162
-weighted avg       0.74      0.70      0.72       162
+           0       0.85      0.64      0.73       138
+           1       0.63      0.84      0.72       101
+    accuracy                           0.73       239
+   macro avg       0.74      0.74      0.73       239
+weighted avg       0.76      0.73      0.73       239
 </t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.69      0.78       138
-           1       0.25      0.58      0.35        24
-    accuracy                           0.67       162
-   macro avg       0.58      0.64      0.56       162
-weighted avg       0.81      0.67      0.72       162
+           0       0.90      0.50      0.64       191
+           1       0.28      0.79      0.42        48
+    accuracy                           0.56       239
+   macro avg       0.59      0.64      0.53       239
+weighted avg       0.78      0.56      0.60       239
 </t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.74      0.79       121
-           1       0.44      0.61      0.51        41
-    accuracy                           0.70       162
-   macro avg       0.64      0.67      0.65       162
-weighted avg       0.74      0.70      0.72       162
+           0       0.85      0.64      0.73       138
+           1       0.63      0.84      0.72       101
+    accuracy                           0.73       239
+   macro avg       0.74      0.74      0.73       239
+weighted avg       0.76      0.73      0.73       239
 </t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.74      0.79       121
-         1.0       0.44      0.61      0.51        41
-    accuracy                           0.70       162
-   macro avg       0.64      0.67      0.65       162
-weighted avg       0.74      0.70      0.72       162
+         0.0       0.85      0.64      0.73       138
+         1.0       0.63      0.84      0.72       101
+    accuracy                           0.73       239
+   macro avg       0.74      0.74      0.73       239
+weighted avg       0.76      0.73      0.73       239
 </t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.97      0.66      0.78       155
-           1       0.07      0.57      0.12         7
-    accuracy                           0.65       162
-   macro avg       0.52      0.61      0.45       162
-weighted avg       0.93      0.65      0.76       162
+           0       0.97      0.46      0.62       222
+           1       0.10      0.82      0.19        17
+    accuracy                           0.49       239
+   macro avg       0.54      0.64      0.40       239
+weighted avg       0.91      0.49      0.59       239
 </t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      0.65      0.79       162
+           0       1.00      0.44      0.61       239
            1       0.00      0.00      0.00         0
-    accuracy                           0.65       162
-   macro avg       0.50      0.32      0.39       162
-weighted avg       1.00      0.65      0.79       162
+    accuracy                           0.44       239
+   macro avg       0.50      0.22      0.31       239
+weighted avg       1.00      0.44      0.61       239
 </t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.86      0.79       105
-           1       0.61      0.40      0.48        57
-    accuracy                           0.70       162
-   macro avg       0.67      0.63      0.64       162
-weighted avg       0.68      0.70      0.68       162
+           0       0.58      0.86      0.69       105
+           1       0.82      0.51      0.63       134
+    accuracy                           0.66       239
+   macro avg       0.70      0.68      0.66       239
+weighted avg       0.71      0.66      0.65       239
 </t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
 </t>
         </is>
       </c>
@@ -1910,15 +1889,15 @@
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.01      0.50      0.02         2
-           1       0.98      0.35      0.52       160
-    accuracy                           0.35       162
-   macro avg       0.50      0.42      0.27       162
-weighted avg       0.97      0.35      0.51       162
+           1       0.99      0.56      0.72       237
+    accuracy                           0.56       239
+   macro avg       0.50      0.53      0.37       239
+weighted avg       0.98      0.56      0.71       239
 </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1" s="7">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="5" t="n"/>
       <c r="C12" s="5" t="n"/>
@@ -1933,7 +1912,7 @@
       <c r="L12" s="5" t="n"/>
       <c r="M12" s="5" t="n"/>
     </row>
-    <row r="13" ht="114" customHeight="1">
+    <row r="13" ht="114" customHeight="1" s="7">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>without feature selection</t>
@@ -1942,276 +1921,261 @@
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.86      0.86       105
-           1       0.74      0.74      0.74        57
-    accuracy                           0.81       162
-   macro avg       0.80      0.80      0.80       162
-weighted avg       0.81      0.81      0.81       162
+           0       0.81      0.78      0.79       109
+           1       0.82      0.85      0.83       130
+    accuracy                           0.82       239
+   macro avg       0.82      0.81      0.81       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.87      0.88       108
-           1       0.75      0.80      0.77        54
-    accuracy                           0.85       162
-   macro avg       0.82      0.83      0.83       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.90      0.84      0.87       112
+           1       0.87      0.91      0.89       127
+    accuracy                           0.88       239
+   macro avg       0.88      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.70      0.73       114
-           1       0.40      0.48      0.44        48
-    accuracy                           0.64       162
-   macro avg       0.58      0.59      0.58       162
-weighted avg       0.66      0.64      0.64       162
+           0       0.76      0.62      0.68       130
+           1       0.63      0.77      0.69       109
+    accuracy                           0.69       239
+   macro avg       0.69      0.69      0.69       239
+weighted avg       0.70      0.69      0.69       239
 </t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.86      0.89       114
-         1.0       0.72      0.85      0.78        48
-    accuracy                           0.86       162
-   macro avg       0.83      0.86      0.84       162
-weighted avg       0.87      0.86      0.86       162
+         0.0       0.93      0.82      0.87       119
+         1.0       0.84      0.94      0.89       120
+    accuracy                           0.88       239
+   macro avg       0.89      0.88      0.88       239
+weighted avg       0.89      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.87      0.88       105
-           1       0.77      0.81      0.79        57
-    accuracy                           0.85       162
-   macro avg       0.83      0.84      0.83       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.77      0.87      0.82       105
+           1       0.88      0.80      0.84       134
+    accuracy                           0.83       239
+   macro avg       0.83      0.83      0.83       239
+weighted avg       0.83      0.83      0.83       239
 </t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.99      0.73      0.84       143
-           1       0.32      0.95      0.47        19
-    accuracy                           0.75       162
-   macro avg       0.65      0.84      0.66       162
-weighted avg       0.91      0.75      0.80       162
+           0       0.99      0.58      0.73       178
+           1       0.45      0.98      0.62        61
+    accuracy                           0.69       239
+   macro avg       0.72      0.78      0.68       239
+weighted avg       0.85      0.69      0.70       239
 </t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.78      0.85       124
-           1       0.53      0.79      0.63        38
-    accuracy                           0.78       162
-   macro avg       0.73      0.79      0.74       162
-weighted avg       0.83      0.78      0.80       162
+           0       0.92      0.67      0.78       145
+           1       0.64      0.91      0.75        94
+    accuracy                           0.77       239
+   macro avg       0.78      0.79      0.77       239
+weighted avg       0.81      0.77      0.77       239
 </t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.92      0.89       105
-           1       0.84      0.72      0.77        57
-    accuracy                           0.85       162
-   macro avg       0.85      0.82      0.83       162
-weighted avg       0.85      0.85      0.85       162
+           0       0.82      0.92      0.87       105
+           1       0.93      0.84      0.89       134
+    accuracy                           0.88       239
+   macro avg       0.88      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.94      0.90       105
-           1       0.87      0.72      0.79        57
-    accuracy                           0.86       162
-   macro avg       0.87      0.83      0.84       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.77      0.94      0.85       105
+           1       0.95      0.78      0.86       134
+    accuracy                           0.85       239
+   macro avg       0.86      0.86      0.85       239
+weighted avg       0.87      0.85      0.85       239
 </t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      1.00      0.79       105
-           1       0.00      0.00      0.00        57
-    accuracy                           0.65       162
-   macro avg       0.32      0.50      0.39       162
-weighted avg       0.42      0.65      0.51       162
+           0       0.45      1.00      0.62       105
+           1       1.00      0.03      0.06       134
+    accuracy                           0.46       239
+   macro avg       0.72      0.51      0.34       239
+weighted avg       0.76      0.46      0.30       239
 </t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.95      0.88       105
-           1       0.87      0.60      0.71        57
-    accuracy                           0.83       162
-   macro avg       0.84      0.77      0.79       162
-weighted avg       0.83      0.83      0.82       162
+           0       0.71      0.95      0.82       105
+           1       0.95      0.70      0.81       134
+    accuracy                           0.81       239
+   macro avg       0.83      0.83      0.81       239
+weighted avg       0.85      0.81      0.81       239
 </t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.84      0.79        94
-           1       0.74      0.62      0.67        68
-    accuracy                           0.75       162
-   macro avg       0.74      0.73      0.73       162
-weighted avg       0.75      0.75      0.74       162
+           0       0.75      0.79      0.77       100
+           1       0.84      0.81      0.83       139
+    accuracy                           0.80       239
+   macro avg       0.80      0.80      0.80       239
+weighted avg       0.81      0.80      0.80       239
 </t>
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="9" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-    </row>
-    <row r="15" ht="110.25" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1" s="7"/>
+    <row r="15" ht="110.25" customHeight="1" s="7">
+      <c r="A15" t="inlineStr">
         <is>
           <t>forward selection</t>
         </is>
       </c>
-      <c r="B15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.79      0.82       113
-           1       0.58      0.67      0.62        49
-    accuracy                           0.75       162
-   macro avg       0.71      0.73      0.72       162
-weighted avg       0.77      0.75      0.76       162
-</t>
-        </is>
-      </c>
-      <c r="C15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.84      0.87       113
-           1       0.68      0.80      0.74        49
-    accuracy                           0.83       162
-   macro avg       0.79      0.82      0.80       162
-weighted avg       0.84      0.83      0.83       162
-</t>
-        </is>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.84      0.88       115
-           1       0.68      0.83      0.75        47
-    accuracy                           0.84       162
-   macro avg       0.80      0.84      0.82       162
-weighted avg       0.85      0.84      0.84       162
-</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.89      0.84      0.86       111
-         1.0       0.68      0.76      0.72        51
-    accuracy                           0.81       162
-   macro avg       0.78      0.80      0.79       162
-weighted avg       0.82      0.81      0.82       162
-</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.84      0.89       116
-           1       0.68      0.85      0.76        46
-    accuracy                           0.85       162
-   macro avg       0.81      0.85      0.82       162
-weighted avg       0.86      0.85      0.85       162
-</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.78      0.85       127
-           1       0.51      0.83      0.63        35
-    accuracy                           0.79       162
-   macro avg       0.73      0.80      0.74       162
-weighted avg       0.85      0.79      0.81       162
-</t>
-        </is>
-      </c>
-      <c r="H15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.80      0.87       127
-           1       0.54      0.89      0.67        35
-    accuracy                           0.81       162
-   macro avg       0.75      0.84      0.77       162
-weighted avg       0.87      0.81      0.83       162
-</t>
-        </is>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.86      0.88       111
-           1       0.72      0.80      0.76        51
-    accuracy                           0.84       162
-   macro avg       0.81      0.83      0.82       162
-weighted avg       0.85      0.84      0.84       162
-</t>
-        </is>
-      </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.91      0.92       108
-           1       0.82      0.87      0.85        54
-    accuracy                           0.90       162
-   macro avg       0.88      0.89      0.88       162
-weighted avg       0.90      0.90      0.90       162
-</t>
-        </is>
-      </c>
-      <c r="L15" s="9" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.95      0.62      0.75       162
+           1       0.54      0.94      0.68        77
+    accuracy                           0.72       239
+   macro avg       0.74      0.78      0.72       239
+weighted avg       0.82      0.72      0.73       239
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.78      0.84       122
+           1       0.80      0.91      0.85       117
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.84       239
+weighted avg       0.85      0.85      0.84       239
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.92      0.81      0.86       120
+           1       0.83      0.93      0.88       119
+    accuracy                           0.87       239
+   macro avg       0.88      0.87      0.87       239
+weighted avg       0.88      0.87      0.87       239
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.89      0.80      0.84       116
+         1.0       0.83      0.90      0.86       123
+    accuracy                           0.85       239
+   macro avg       0.86      0.85      0.85       239
+weighted avg       0.86      0.85      0.85       239
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.77      0.84       128
+           1       0.78      0.94      0.85       111
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.86      0.85      0.84       239
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.68      0.79       145
+           1       0.66      0.94      0.77        94
+    accuracy                           0.78       239
+   macro avg       0.80      0.81      0.78       239
+weighted avg       0.83      0.78      0.78       239
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.96      0.70      0.81       145
+           1       0.67      0.96      0.79        94
+    accuracy                           0.80       239
+   macro avg       0.82      0.83      0.80       239
+weighted avg       0.85      0.80      0.80       239
+</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.83      0.87       114
+           1       0.86      0.92      0.89       125
+    accuracy                           0.88       239
+   macro avg       0.88      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
+</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.93      0.80      0.86       123
-           1       0.56      0.82      0.67        39
-    accuracy                           0.80       162
-   macro avg       0.75      0.81      0.76       162
-weighted avg       0.84      0.80      0.81       162
-</t>
-        </is>
-      </c>
-      <c r="M15" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.87      0.84        99
-           1       0.77      0.70      0.73        63
-    accuracy                           0.80       162
-   macro avg       0.80      0.78      0.79       162
-weighted avg       0.80      0.80      0.80       162
+           1       0.81      0.94      0.87       116
+    accuracy                           0.87       239
+   macro avg       0.87      0.87      0.87       239
+weighted avg       0.88      0.87      0.87       239
+</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.68      0.79       144
+           1       0.66      0.93      0.77        95
+    accuracy                           0.78       239
+   macro avg       0.80      0.80      0.78       239
+weighted avg       0.82      0.78      0.78       239
+</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.82      0.75      0.79       114
+           1       0.79      0.85      0.82       125
+    accuracy                           0.80       239
+   macro avg       0.81      0.80      0.80       239
+weighted avg       0.80      0.80      0.80       239
 </t>
         </is>
       </c>
@@ -2225,121 +2189,121 @@
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.84      0.84       105
-           1       0.70      0.70      0.70        57
-    accuracy                           0.79       162
-   macro avg       0.77      0.77      0.77       162
-weighted avg       0.79      0.79      0.79       162
+           0       0.84      0.81      0.82       109
+           1       0.84      0.87      0.86       130
+    accuracy                           0.84       239
+   macro avg       0.84      0.84      0.84       239
+weighted avg       0.84      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.83      0.86       113
-           1       0.67      0.78      0.72        49
-    accuracy                           0.81       162
-   macro avg       0.78      0.80      0.79       162
-weighted avg       0.83      0.81      0.82       162
+           0       0.90      0.78      0.83       121
+           1       0.80      0.91      0.85       118
+    accuracy                           0.84       239
+   macro avg       0.85      0.84      0.84       239
+weighted avg       0.85      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.85      0.79        91
-           1       0.75      0.61      0.67        71
-    accuracy                           0.74       162
-   macro avg       0.74      0.73      0.73       162
-weighted avg       0.74      0.74      0.74       162
+           0       0.73      0.75      0.74       102
+           1       0.81      0.80      0.80       137
+    accuracy                           0.78       239
+   macro avg       0.77      0.78      0.77       239
+weighted avg       0.78      0.78      0.78       239
 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.82      0.87       120
-         1.0       0.61      0.83      0.71        42
-    accuracy                           0.82       162
-   macro avg       0.77      0.82      0.79       162
-weighted avg       0.85      0.82      0.83       162
+         0.0       0.93      0.75      0.83       130
+         1.0       0.76      0.94      0.84       109
+    accuracy                           0.84       239
+   macro avg       0.85      0.84      0.84       239
+weighted avg       0.85      0.84      0.84       239
 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.85      0.89       114
-           1       0.70      0.83      0.76        48
-    accuracy                           0.85       162
-   macro avg       0.81      0.84      0.82       162
-weighted avg       0.86      0.85      0.85       162
+           0       0.93      0.77      0.84       128
+           1       0.78      0.94      0.85       111
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.86      0.85      0.84       239
 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.81      0.86       118
-           1       0.61      0.80      0.69        44
-    accuracy                           0.81       162
-   macro avg       0.76      0.80      0.78       162
-weighted avg       0.83      0.81      0.82       162
+           0       0.91      0.71      0.80       136
+           1       0.70      0.91      0.79       103
+    accuracy                           0.79       239
+   macro avg       0.81      0.81      0.79       239
+weighted avg       0.82      0.79      0.80       239
 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.83      0.87       115
-           1       0.67      0.81      0.73        47
-    accuracy                           0.83       162
-   macro avg       0.79      0.82      0.80       162
-weighted avg       0.84      0.83      0.83       162
+           0       0.91      0.74      0.82       130
+           1       0.75      0.92      0.82       109
+    accuracy                           0.82       239
+   macro avg       0.83      0.83      0.82       239
+weighted avg       0.84      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.84      0.88       115
-           1       0.68      0.83      0.75        47
-    accuracy                           0.84       162
-   macro avg       0.80      0.84      0.82       162
-weighted avg       0.85      0.84      0.84       162
+           0       0.92      0.80      0.86       121
+           1       0.82      0.93      0.87       118
+    accuracy                           0.87       239
+   macro avg       0.87      0.87      0.87       239
+weighted avg       0.87      0.87      0.87       239
 </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.99      0.66      0.79       157
-           1       0.07      0.80      0.13         5
-    accuracy                           0.67       162
-   macro avg       0.53      0.73      0.46       162
-weighted avg       0.96      0.67      0.77       162
+           0       0.99      0.46      0.63       225
+           1       0.10      0.93      0.18        14
+    accuracy                           0.49       239
+   macro avg       0.54      0.70      0.40       239
+weighted avg       0.94      0.49      0.60       239
 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.82      0.87       120
-           1       0.61      0.83      0.71        42
-    accuracy                           0.82       162
-   macro avg       0.77      0.82      0.79       162
-weighted avg       0.85      0.82      0.83       162
+           0       0.93      0.73      0.82       135
+           1       0.72      0.93      0.82       104
+    accuracy                           0.82       239
+   macro avg       0.83      0.83      0.82       239
+weighted avg       0.84      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.89      0.86        99
-           1       0.81      0.73      0.77        63
-    accuracy                           0.83       162
-   macro avg       0.82      0.81      0.81       162
-weighted avg       0.83      0.83      0.83       162
+           0       0.84      0.85      0.85       103
+           1       0.89      0.88      0.88       136
+    accuracy                           0.87       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.87      0.87      0.87       239
 </t>
         </is>
       </c>
@@ -2353,99 +2317,132 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.85      0.85       106
-           1       0.72      0.73      0.73        56
-    accuracy                           0.81       162
-   macro avg       0.79      0.79      0.79       162
-weighted avg       0.81      0.81      0.81       162
+           0       0.86      0.76      0.81       118
+           1       0.79      0.88      0.83       121
+    accuracy                           0.82       239
+   macro avg       0.82      0.82      0.82       239
+weighted avg       0.82      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.91      0.91       106
-           1       0.82      0.84      0.83        56
-    accuracy                           0.88       162
-   macro avg       0.87      0.87      0.87       162
-weighted avg       0.88      0.88      0.88       162
+           0       0.89      0.79      0.83       118
+           1       0.81      0.90      0.85       121
+    accuracy                           0.85       239
+   macro avg       0.85      0.84      0.84       239
+weighted avg       0.85      0.85      0.84       239
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.87      0.78      0.82       117
+           1       0.81      0.89      0.84       122
+    accuracy                           0.83       239
+   macro avg       0.84      0.83      0.83       239
+weighted avg       0.84      0.83      0.83       239
 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.86      0.89       114
-         1.0       0.72      0.85      0.78        48
-    accuracy                           0.86       162
-   macro avg       0.83      0.86      0.84       162
-weighted avg       0.87      0.86      0.86       162
+         0.0       0.91      0.83      0.87       115
+         1.0       0.86      0.93      0.89       124
+    accuracy                           0.88       239
+   macro avg       0.89      0.88      0.88       239
+weighted avg       0.89      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.90      0.92       110
-           1       0.81      0.88      0.84        52
-    accuracy                           0.90       162
-   macro avg       0.87      0.89      0.88       162
-weighted avg       0.90      0.90      0.90       162
+           0       0.95      0.81      0.87       124
+           1       0.82      0.96      0.88       115
+    accuracy                           0.88       239
+   macro avg       0.89      0.88      0.88       239
+weighted avg       0.89      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.87      0.89       110
-           1       0.75      0.83      0.79        52
-    accuracy                           0.86       162
-   macro avg       0.83      0.85      0.84       162
-weighted avg       0.86      0.86      0.86       162
+           0       0.96      0.70      0.81       145
+           1       0.67      0.96      0.79        94
+    accuracy                           0.80       239
+   macro avg       0.82      0.83      0.80       239
+weighted avg       0.85      0.80      0.80       239
 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.85      0.90       117
-           1       0.70      0.89      0.78        45
-    accuracy                           0.86       162
-   macro avg       0.83      0.87      0.84       162
-weighted avg       0.88      0.86      0.87       162
+           0       0.94      0.73      0.82       136
+           1       0.72      0.94      0.82       103
+    accuracy                           0.82       239
+   macro avg       0.83      0.83      0.82       239
+weighted avg       0.85      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.87      0.90       113
-           1       0.74      0.86      0.79        49
-    accuracy                           0.86       162
-   macro avg       0.84      0.86      0.85       162
-weighted avg       0.87      0.86      0.87       162
+           0       0.91      0.83      0.87       116
+           1       0.85      0.93      0.89       123
+    accuracy                           0.88       239
+   macro avg       0.88      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.88      0.92       115
-           1       0.75      0.91      0.83        47
-    accuracy                           0.89       162
-   macro avg       0.86      0.90      0.87       162
-weighted avg       0.90      0.89      0.89       162
+           0       0.93      0.81      0.87       121
+           1       0.83      0.94      0.88       118
+    accuracy                           0.87       239
+   macro avg       0.88      0.88      0.87       239
+weighted avg       0.88      0.87      0.87       239
+</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.73      0.83       135
+           1       0.73      0.94      0.82       104
+    accuracy                           0.82       239
+   macro avg       0.84      0.84      0.82       239
+weighted avg       0.85      0.82      0.82       239
 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.82      0.88       120
-           1       0.63      0.86      0.73        42
-    accuracy                           0.83       162
-   macro avg       0.79      0.84      0.80       162
-weighted avg       0.86      0.83      0.84       162
+           0       0.94      0.73      0.83       135
+           1       0.73      0.94      0.82       104
+    accuracy                           0.82       239
+   macro avg       0.84      0.84      0.82       239
+weighted avg       0.85      0.82      0.82       239
+</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.78      0.84       120
+           1       0.81      0.91      0.85       119
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.84       239
+weighted avg       0.85      0.85      0.84       239
 </t>
         </is>
       </c>
@@ -2456,6 +2453,138 @@
           <t>Chi_Square feature selection</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.68      0.84      0.75        85
+           1       0.90      0.78      0.83       154
+    accuracy                           0.80       239
+   macro avg       0.79      0.81      0.79       239
+weighted avg       0.82      0.80      0.80       239
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.83      0.78      0.81       111
+           1       0.82      0.86      0.84       128
+    accuracy                           0.82       239
+   macro avg       0.82      0.82      0.82       239
+weighted avg       0.82      0.82      0.82       239
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.72      0.62      0.67       123
+           1       0.65      0.75      0.70       116
+    accuracy                           0.68       239
+   macro avg       0.69      0.68      0.68       239
+weighted avg       0.69      0.68      0.68       239
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.89      0.89      0.89       104
+         1.0       0.92      0.91      0.91       135
+    accuracy                           0.90       239
+   macro avg       0.90      0.90      0.90       239
+weighted avg       0.90      0.90      0.90       239
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.75      0.62      0.68       127
+           1       0.64      0.77      0.70       112
+    accuracy                           0.69       239
+   macro avg       0.70      0.69      0.69       239
+weighted avg       0.70      0.69      0.69       239
+</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.76      0.82       124
+           1       0.78      0.90      0.84       115
+    accuracy                           0.83       239
+   macro avg       0.84      0.83      0.83       239
+weighted avg       0.84      0.83      0.83       239
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.88      0.77      0.82       119
+           1       0.80      0.89      0.84       120
+    accuracy                           0.83       239
+   macro avg       0.84      0.83      0.83       239
+weighted avg       0.84      0.83      0.83       239
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.82      0.84      0.83       102
+           1       0.88      0.86      0.87       137
+    accuracy                           0.85       239
+   macro avg       0.85      0.85      0.85       239
+weighted avg       0.85      0.85      0.85       239
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.87      0.74      0.80       123
+           1       0.76      0.88      0.82       116
+    accuracy                           0.81       239
+   macro avg       0.81      0.81      0.81       239
+weighted avg       0.82      0.81      0.81       239
+</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       1.00      0.45      0.62       235
+           1       0.03      1.00      0.06         4
+    accuracy                           0.46       239
+   macro avg       0.51      0.72      0.34       239
+weighted avg       0.98      0.46      0.61       239
+</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.89      0.74      0.81       126
+           1       0.75      0.89      0.82       113
+    accuracy                           0.81       239
+   macro avg       0.82      0.82      0.81       239
+weighted avg       0.82      0.81      0.81       239
+</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.78      0.83      0.80        99
+           1       0.87      0.84      0.85       140
+    accuracy                           0.83       239
+   macro avg       0.83      0.83      0.83       239
+weighted avg       0.83      0.83      0.83       239
+</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2463,6 +2592,147 @@
           <t>Boruta feature selection</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.76      0.83       125
+           1       0.78      0.91      0.84       114
+    accuracy                           0.83       239
+   macro avg       0.84      0.84      0.83       239
+weighted avg       0.84      0.83      0.83       239
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.81      0.85       116
+           1       0.84      0.91      0.87       123
+    accuracy                           0.86       239
+   macro avg       0.87      0.86      0.86       239
+weighted avg       0.86      0.86      0.86       239
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.83      0.87       116
+           1       0.85      0.93      0.89       123
+    accuracy                           0.88       239
+   macro avg       0.88      0.88      0.88       239
+weighted avg       0.88      0.88      0.88       239
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.91      0.76      0.83       127
+         1.0       0.77      0.92      0.84       112
+    accuracy                           0.83       239
+   macro avg       0.84      0.84      0.83       239
+weighted avg       0.85      0.83      0.83       239
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.75      0.82       128
+           1       0.76      0.92      0.83       111
+    accuracy                           0.83       239
+   macro avg       0.84      0.83      0.83       239
+weighted avg       0.84      0.83      0.83       239
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.69      0.80       143
+           1       0.67      0.94      0.78        96
+    accuracy                           0.79       239
+   macro avg       0.81      0.81      0.79       239
+weighted avg       0.83      0.79      0.79       239
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.69      0.80       143
+           1       0.67      0.94      0.78        96
+    accuracy                           0.79       239
+   macro avg       0.81      0.81      0.79       239
+weighted avg       0.83      0.79      0.79       239
+</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.81      0.86       118
+           1       0.84      0.93      0.88       121
+    accuracy                           0.87       239
+   macro avg       0.88      0.87      0.87       239
+weighted avg       0.87      0.87      0.87       239
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.79      0.86       124
+           1       0.81      0.94      0.87       115
+    accuracy                           0.86       239
+   macro avg       0.87      0.86      0.86       239
+weighted avg       0.87      0.86      0.86       239
+</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.67      0.79       147
+           1       0.64      0.93      0.76        92
+    accuracy                           0.77       239
+   macro avg       0.79      0.80      0.77       239
+weighted avg       0.83      0.77      0.78       239
+</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.95      0.72      0.82       139
+           1       0.71      0.95      0.81       100
+    accuracy                           0.82       239
+   macro avg       0.83      0.83      0.82       239
+weighted avg       0.85      0.82      0.82       239
+</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.84      0.85      0.85       103
+           1       0.89      0.88      0.88       136
+    accuracy                           0.87       239
+   macro avg       0.86      0.86      0.86       239
+weighted avg       0.87      0.87      0.87       239
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/smote_Result_sheet_pcos.xlsx
+++ b/smote_Result_sheet_pcos.xlsx
@@ -534,55 +534,55 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.83      0.85       110
-           1       0.86      0.89      0.87       129
-    accuracy                           0.86       239
-   macro avg       0.86      0.86      0.86       239
-weighted avg       0.86      0.86      0.86       239
+           0       0.85      0.83      0.84       107
+           1       0.82      0.83      0.82        96
+    accuracy                           0.83       203
+   macro avg       0.83      0.83      0.83       203
+weighted avg       0.83      0.83      0.83       203
 </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.80      0.85       117
-           1       0.83      0.91      0.87       122
-    accuracy                           0.86       239
-   macro avg       0.86      0.86      0.86       239
-weighted avg       0.86      0.86      0.86       239
+           0       0.90      0.77      0.83       122
+           1       0.84      0.93      0.88       154
+    accuracy                           0.86       276
+   macro avg       0.87      0.85      0.85       276
+weighted avg       0.86      0.86      0.86       276
 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.63      0.68       122
-           1       0.66      0.76      0.71       117
-    accuracy                           0.69       239
-   macro avg       0.70      0.70      0.69       239
-weighted avg       0.70      0.69      0.69       239
+           0       0.73      0.56      0.64       137
+           1       0.65      0.80      0.72       139
+    accuracy                           0.68       276
+   macro avg       0.69      0.68      0.68       276
+weighted avg       0.69      0.68      0.68       276
 </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.79      0.85       122
-         1.0       0.81      0.92      0.86       117
-    accuracy                           0.85       239
-   macro avg       0.86      0.85      0.85       239
-weighted avg       0.86      0.85      0.85       239
+         0.0       0.93      0.82      0.87       119
+         1.0       0.89      0.96      0.92       175
+    accuracy                           0.90       294
+   macro avg       0.91      0.89      0.90       294
+weighted avg       0.91      0.90      0.90       294
 </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.83      0.77       105
-           1       0.85      0.74      0.79       134
-    accuracy                           0.78       239
-   macro avg       0.78      0.78      0.78       239
-weighted avg       0.79      0.78      0.78       239
+           0       0.72      0.87      0.79       105
+           1       0.91      0.80      0.85       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.83      0.82       276
+weighted avg       0.84      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -611,22 +611,22 @@
       <c r="I2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.90      0.85       105
-           1       0.91      0.83      0.87       134
-    accuracy                           0.86       239
-   macro avg       0.86      0.86      0.86       239
-weighted avg       0.86      0.86      0.86       239
+           0       0.84      0.91      0.88       105
+           1       0.90      0.82      0.86        98
+    accuracy                           0.87       203
+   macro avg       0.87      0.87      0.87       203
+weighted avg       0.87      0.87      0.87       203
 </t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.94      0.83       105
-           1       0.94      0.73      0.82       134
-    accuracy                           0.82       239
-   macro avg       0.84      0.84      0.82       239
-weighted avg       0.85      0.82      0.82       239
+           0       0.70      0.94      0.80       105
+           1       0.96      0.75      0.84       171
+    accuracy                           0.82       276
+   macro avg       0.83      0.85      0.82       276
+weighted avg       0.86      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -671,55 +671,55 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.76      0.81       119
-           1       0.79      0.88      0.83       120
-    accuracy                           0.82       239
-   macro avg       0.83      0.82      0.82       239
-weighted avg       0.83      0.82      0.82       239
+           0       0.90      0.78      0.84       122
+           1       0.72      0.88      0.79        81
+    accuracy                           0.82       203
+   macro avg       0.81      0.83      0.82       203
+weighted avg       0.83      0.82      0.82       203
 </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.80      0.85       117
-           1       0.83      0.91      0.87       122
-    accuracy                           0.86       239
-   macro avg       0.86      0.86      0.86       239
-weighted avg       0.86      0.86      0.86       239
+           0       0.90      0.79      0.84       119
+           1       0.85      0.93      0.89       157
+    accuracy                           0.87       276
+   macro avg       0.87      0.86      0.86       276
+weighted avg       0.87      0.87      0.87       276
 </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.67      0.71       119
-           1       0.71      0.79      0.75       120
-    accuracy                           0.73       239
-   macro avg       0.74      0.73      0.73       239
-weighted avg       0.74      0.73      0.73       239
+           0       0.76      0.63      0.69       127
+           1       0.73      0.83      0.78       149
+    accuracy                           0.74       276
+   macro avg       0.74      0.73      0.73       276
+weighted avg       0.74      0.74      0.74       276
 </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.94      0.79      0.86       125
-         1.0       0.81      0.95      0.87       114
-    accuracy                           0.87       239
-   macro avg       0.87      0.87      0.87       239
-weighted avg       0.88      0.87      0.87       239
+         0.0       0.93      0.78      0.85       126
+         1.0       0.85      0.96      0.90       168
+    accuracy                           0.88       294
+   macro avg       0.89      0.87      0.88       294
+weighted avg       0.89      0.88      0.88       294
 </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.94      0.84       105
-           1       0.94      0.77      0.85       134
-    accuracy                           0.85       239
-   macro avg       0.85      0.86      0.85       239
-weighted avg       0.86      0.85      0.85       239
+           0       0.72      0.88      0.79       105
+           1       0.91      0.80      0.85       171
+    accuracy                           0.83       276
+   macro avg       0.82      0.84      0.82       276
+weighted avg       0.84      0.83      0.83       276
 </t>
         </is>
       </c>
@@ -748,22 +748,22 @@
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.92      0.86       105
-           1       0.93      0.82      0.87       134
-    accuracy                           0.87       239
-   macro avg       0.87      0.87      0.87       239
-weighted avg       0.87      0.87      0.87       239
+           0       0.83      0.94      0.88       105
+           1       0.93      0.80      0.86        98
+    accuracy                           0.87       203
+   macro avg       0.88      0.87      0.87       203
+weighted avg       0.88      0.87      0.87       203
 </t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.97      0.84       105
-           1       0.97      0.74      0.84       134
-    accuracy                           0.84       239
-   macro avg       0.86      0.86      0.84       239
-weighted avg       0.87      0.84      0.84       239
+           0       0.73      0.95      0.83       105
+           1       0.96      0.78      0.86       171
+    accuracy                           0.85       276
+   macro avg       0.85      0.87      0.85       276
+weighted avg       0.87      0.85      0.85       276
 </t>
         </is>
       </c>
@@ -808,55 +808,55 @@
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.72      0.78       122
-           1       0.75      0.85      0.80       117
-    accuracy                           0.79       239
-   macro avg       0.79      0.79      0.79       239
-weighted avg       0.79      0.79      0.79       239
+           0       0.82      0.78      0.80       110
+           1       0.76      0.80      0.77        93
+    accuracy                           0.79       203
+   macro avg       0.79      0.79      0.79       203
+weighted avg       0.79      0.79      0.79       203
 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.77      0.82       118
-           1       0.80      0.88      0.84       121
-    accuracy                           0.83       239
-   macro avg       0.83      0.83      0.83       239
-weighted avg       0.83      0.83      0.83       239
+           0       0.87      0.74      0.80       123
+           1       0.81      0.91      0.86       153
+    accuracy                           0.83       276
+   macro avg       0.84      0.82      0.83       276
+weighted avg       0.84      0.83      0.83       276
 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.73      0.76       115
-           1       0.77      0.83      0.80       124
-    accuracy                           0.78       239
-   macro avg       0.78      0.78      0.78       239
-weighted avg       0.78      0.78      0.78       239
+           0       0.80      0.67      0.73       126
+           1       0.75      0.86      0.80       150
+    accuracy                           0.77       276
+   macro avg       0.78      0.76      0.77       276
+weighted avg       0.78      0.77      0.77       276
 </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.82      0.87       119
-         1.0       0.84      0.94      0.89       120
-    accuracy                           0.88       239
-   macro avg       0.89      0.88      0.88       239
-weighted avg       0.89      0.88      0.88       239
+         0.0       0.93      0.86      0.89       114
+         1.0       0.92      0.96      0.94       180
+    accuracy                           0.92       294
+   macro avg       0.92      0.91      0.92       294
+weighted avg       0.92      0.92      0.92       294
 </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.91      0.82       105
-           1       0.92      0.76      0.83       134
-    accuracy                           0.83       239
-   macro avg       0.83      0.84      0.83       239
-weighted avg       0.84      0.83      0.83       239
+           0       0.73      0.90      0.81       105
+           1       0.93      0.80      0.86       171
+    accuracy                           0.84       276
+   macro avg       0.83      0.85      0.83       276
+weighted avg       0.85      0.84      0.84       276
 </t>
         </is>
       </c>
@@ -885,22 +885,22 @@
       <c r="I4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.91      0.86       105
-           1       0.93      0.84      0.88       134
-    accuracy                           0.87       239
-   macro avg       0.87      0.88      0.87       239
-weighted avg       0.88      0.87      0.87       239
+           0       0.84      0.92      0.88       105
+           1       0.91      0.81      0.85        98
+    accuracy                           0.87       203
+   macro avg       0.87      0.86      0.87       203
+weighted avg       0.87      0.87      0.87       203
 </t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.96      0.85       105
-           1       0.96      0.76      0.85       134
-    accuracy                           0.85       239
-   macro avg       0.86      0.86      0.85       239
-weighted avg       0.87      0.85      0.85       239
+           0       0.74      0.96      0.83       105
+           1       0.97      0.79      0.87       171
+    accuracy                           0.86       276
+   macro avg       0.85      0.88      0.85       276
+weighted avg       0.88      0.86      0.86       276
 </t>
         </is>
       </c>
@@ -945,11 +945,11 @@
       <c r="B5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.77      0.80       114
-           1       0.81      0.86      0.83       125
-    accuracy                           0.82       239
-   macro avg       0.82      0.82      0.82       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.84      0.85      0.84       104
+           1       0.84      0.83      0.83        99
+    accuracy                           0.84       203
+   macro avg       0.84      0.84      0.84       203
+weighted avg       0.84      0.84      0.84       203
 </t>
         </is>
       </c>
@@ -957,43 +957,43 @@
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.86      0.79      0.82       114
-           1       0.82      0.88      0.85       125
-    accuracy                           0.84       239
-   macro avg       0.84      0.83      0.84       239
-weighted avg       0.84      0.84      0.84       239
+           1       0.86      0.91      0.88       162
+    accuracy                           0.86       276
+   macro avg       0.86      0.85      0.85       276
+weighted avg       0.86      0.86      0.86       276
 </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.72      0.77       121
-           1       0.75      0.85      0.79       118
-    accuracy                           0.78       239
-   macro avg       0.79      0.78      0.78       239
-weighted avg       0.79      0.78      0.78       239
+           0       0.83      0.65      0.73       134
+           1       0.73      0.87      0.79       142
+    accuracy                           0.76       276
+   macro avg       0.78      0.76      0.76       276
+weighted avg       0.78      0.76      0.76       276
 </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.82      0.86       117
-         1.0       0.84      0.93      0.88       122
-    accuracy                           0.87       239
-   macro avg       0.88      0.87      0.87       239
-weighted avg       0.88      0.87      0.87       239
+         0.0       0.91      0.83      0.87       116
+         1.0       0.89      0.95      0.92       178
+    accuracy                           0.90       294
+   macro avg       0.90      0.89      0.89       294
+weighted avg       0.90      0.90      0.90       294
 </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.90      0.83       105
-           1       0.91      0.78      0.84       134
-    accuracy                           0.84       239
-   macro avg       0.84      0.84      0.84       239
-weighted avg       0.85      0.84      0.84       239
+           0       0.80      0.88      0.84       105
+           1       0.92      0.87      0.89       171
+    accuracy                           0.87       276
+   macro avg       0.86      0.87      0.86       276
+weighted avg       0.87      0.87      0.87       276
 </t>
         </is>
       </c>
@@ -1022,22 +1022,22 @@
       <c r="I5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.90      0.87       105
-           1       0.91      0.87      0.89       134
-    accuracy                           0.88       239
-   macro avg       0.88      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
+           0       0.87      0.89      0.88       105
+           1       0.88      0.86      0.87        98
+    accuracy                           0.87       203
+   macro avg       0.87      0.87      0.87       203
+weighted avg       0.87      0.87      0.87       203
 </t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.91      0.83       105
-           1       0.92      0.78      0.85       134
-    accuracy                           0.84       239
-   macro avg       0.84      0.85      0.84       239
-weighted avg       0.85      0.84      0.84       239
+           0       0.75      0.92      0.83       105
+           1       0.95      0.81      0.87       171
+    accuracy                           0.86       276
+   macro avg       0.85      0.87      0.85       276
+weighted avg       0.87      0.86      0.86       276
 </t>
         </is>
       </c>
@@ -1082,55 +1082,55 @@
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.75      0.81       121
-           1       0.78      0.88      0.83       118
-    accuracy                           0.82       239
-   macro avg       0.82      0.82      0.82       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.88      0.80      0.84       115
+           1       0.77      0.85      0.81        88
+    accuracy                           0.82       203
+   macro avg       0.82      0.83      0.82       203
+weighted avg       0.83      0.82      0.82       203
 </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.77      0.79       112
-           1       0.81      0.85      0.83       127
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.81      0.81      0.81       239
+           0       0.82      0.75      0.78       115
+           1       0.83      0.88      0.86       161
+    accuracy                           0.83       276
+   macro avg       0.82      0.81      0.82       276
+weighted avg       0.83      0.83      0.82       276
 </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.71      0.77       122
-           1       0.74      0.85      0.79       117
-    accuracy                           0.78       239
-   macro avg       0.78      0.78      0.78       239
-weighted avg       0.78      0.78      0.78       239
+           0       0.83      0.66      0.73       132
+           1       0.74      0.88      0.80       144
+    accuracy                           0.77       276
+   macro avg       0.78      0.77      0.77       276
+weighted avg       0.78      0.77      0.77       276
 </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.84      0.87      0.85       101
-         1.0       0.90      0.88      0.89       138
-    accuracy                           0.87       239
-   macro avg       0.87      0.87      0.87       239
-weighted avg       0.88      0.87      0.87       239
+         0.0       0.85      0.84      0.84       106
+         1.0       0.91      0.91      0.91       188
+    accuracy                           0.89       294
+   macro avg       0.88      0.88      0.88       294
+weighted avg       0.89      0.89      0.89       294
 </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.70      0.87      0.77       105
-           1       0.87      0.71      0.78       134
-    accuracy                           0.78       239
-   macro avg       0.79      0.79      0.78       239
-weighted avg       0.80      0.78      0.78       239
+           0       0.71      0.88      0.79       105
+           1       0.91      0.78      0.84       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.83      0.81       276
+weighted avg       0.84      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -1159,22 +1159,22 @@
       <c r="I6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.81      0.82       105
-           1       0.85      0.87      0.86       134
-    accuracy                           0.85       239
-   macro avg       0.84      0.84      0.84       239
-weighted avg       0.84      0.85      0.84       239
+           0       0.87      0.81      0.84       105
+           1       0.81      0.87      0.84        98
+    accuracy                           0.84       203
+   macro avg       0.84      0.84      0.84       203
+weighted avg       0.84      0.84      0.84       203
 </t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.82      0.78       105
-           1       0.85      0.78      0.81       134
-    accuracy                           0.80       239
-   macro avg       0.80      0.80      0.80       239
-weighted avg       0.80      0.80      0.80       239
+           0       0.74      0.82      0.78       105
+           1       0.88      0.82      0.85       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.82      0.82       276
+weighted avg       0.83      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -1219,55 +1219,55 @@
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.79      0.77      0.78       108
-           1       0.81      0.83      0.82       131
-    accuracy                           0.80       239
-   macro avg       0.80      0.80      0.80       239
-weighted avg       0.80      0.80      0.80       239
+           0       0.75      0.83      0.79        95
+           1       0.84      0.76      0.80       108
+    accuracy                           0.79       203
+   macro avg       0.79      0.80      0.79       203
+weighted avg       0.80      0.79      0.79       203
 </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.81      0.82       109
-           1       0.84      0.87      0.86       130
-    accuracy                           0.84       239
-   macro avg       0.84      0.84      0.84       239
-weighted avg       0.84      0.84      0.84       239
+           0       0.84      0.75      0.79       117
+           1       0.83      0.89      0.86       159
+    accuracy                           0.83       276
+   macro avg       0.83      0.82      0.83       276
+weighted avg       0.83      0.83      0.83       276
 </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.71      0.76       123
-           1       0.73      0.84      0.78       116
-    accuracy                           0.77       239
-   macro avg       0.78      0.78      0.77       239
-weighted avg       0.78      0.77      0.77       239
+           0       0.83      0.67      0.74       130
+           1       0.75      0.88      0.81       146
+    accuracy                           0.78       276
+   macro avg       0.79      0.77      0.77       276
+weighted avg       0.79      0.78      0.78       276
 </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.84      0.88      0.86       100
-         1.0       0.91      0.88      0.89       139
-    accuracy                           0.88       239
-   macro avg       0.87      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
+         0.0       0.83      0.87      0.85       100
+         1.0       0.93      0.91      0.92       194
+    accuracy                           0.89       294
+   macro avg       0.88      0.89      0.88       294
+weighted avg       0.90      0.89      0.90       294
 </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.69      0.89      0.78       105
-           1       0.88      0.69      0.77       134
-    accuracy                           0.77       239
-   macro avg       0.79      0.79      0.77       239
-weighted avg       0.80      0.77      0.77       239
+           0       0.73      0.86      0.79       105
+           1       0.90      0.80      0.85       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.83      0.82       276
+weighted avg       0.83      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -1296,11 +1296,11 @@
       <c r="I7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.81      0.84       105
-           1       0.86      0.90      0.88       134
-    accuracy                           0.86       239
-   macro avg       0.86      0.86      0.86       239
-weighted avg       0.86      0.86      0.86       239
+           0       0.89      0.81      0.85       105
+           1       0.81      0.89      0.85        98
+    accuracy                           0.85       203
+   macro avg       0.85      0.85      0.85       203
+weighted avg       0.85      0.85      0.85       203
 </t>
         </is>
       </c>
@@ -1308,10 +1308,10 @@
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.73      0.84      0.78       105
-           1       0.86      0.76      0.81       134
-    accuracy                           0.79       239
-   macro avg       0.80      0.80      0.79       239
-weighted avg       0.80      0.79      0.80       239
+           1       0.89      0.81      0.85       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.82      0.81       276
+weighted avg       0.83      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -1356,55 +1356,55 @@
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.72      0.73       110
-           1       0.77      0.80      0.78       129
-    accuracy                           0.76       239
-   macro avg       0.76      0.76      0.76       239
-weighted avg       0.76      0.76      0.76       239
+           0       0.71      0.76      0.74        99
+           1       0.76      0.71      0.73       104
+    accuracy                           0.73       203
+   macro avg       0.73      0.73      0.73       203
+weighted avg       0.74      0.73      0.73       203
 </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.82      0.83       107
-           1       0.86      0.87      0.86       132
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.85      0.85      0.85       239
+           0       0.84      0.76      0.80       116
+           1       0.84      0.89      0.86       160
+    accuracy                           0.84       276
+   macro avg       0.84      0.83      0.83       276
+weighted avg       0.84      0.84      0.84       276
 </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.74      0.75       110
-           1       0.78      0.81      0.80       129
-    accuracy                           0.78       239
-   macro avg       0.78      0.78      0.78       239
-weighted avg       0.78      0.78      0.78       239
+           0       0.77      0.73      0.75       111
+           1       0.82      0.85      0.84       165
+    accuracy                           0.80       276
+   macro avg       0.80      0.79      0.79       276
+weighted avg       0.80      0.80      0.80       276
 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.81      0.84      0.83       101
-         1.0       0.88      0.86      0.87       138
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.85      0.85      0.85       239
+         0.0       0.80      0.86      0.83        98
+         1.0       0.93      0.89      0.91       196
+    accuracy                           0.88       294
+   macro avg       0.86      0.88      0.87       294
+weighted avg       0.88      0.88      0.88       294
 </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.85      0.79       105
-           1       0.87      0.78      0.82       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.81      0.81      0.81       239
+           0       0.72      0.85      0.78       105
+           1       0.90      0.80      0.85       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.82      0.81       276
+weighted avg       0.83      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -1433,22 +1433,22 @@
       <c r="I8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.79      0.79       105
-           1       0.84      0.84      0.84       134
-    accuracy                           0.82       239
-   macro avg       0.82      0.82      0.82       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.84      0.79      0.81       105
+           1       0.79      0.84      0.81        98
+    accuracy                           0.81       203
+   macro avg       0.81      0.81      0.81       203
+weighted avg       0.81      0.81      0.81       203
 </t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.83      0.79       105
-           1       0.86      0.80      0.83       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.74      0.83      0.78       105
+           1       0.89      0.82      0.85       171
+    accuracy                           0.83       276
+   macro avg       0.82      0.83      0.82       276
+weighted avg       0.83      0.83      0.83       276
 </t>
         </is>
       </c>
@@ -1493,55 +1493,55 @@
       <c r="B9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.72      0.72       106
-           1       0.78      0.78      0.78       133
-    accuracy                           0.75       239
-   macro avg       0.75      0.75      0.75       239
-weighted avg       0.75      0.75      0.75       239
+           0       0.77      0.77      0.77       105
+           1       0.76      0.76      0.76        98
+    accuracy                           0.76       203
+   macro avg       0.76      0.76      0.76       203
+weighted avg       0.76      0.76      0.76       203
 </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.82      0.83       107
-           1       0.86      0.87      0.86       132
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.85      0.85      0.85       239
+           0       0.84      0.76      0.80       116
+           1       0.84      0.89      0.86       160
+    accuracy                           0.84       276
+   macro avg       0.84      0.83      0.83       276
+weighted avg       0.84      0.84      0.84       276
 </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.74      0.75       110
-           1       0.78      0.81      0.80       129
-    accuracy                           0.78       239
-   macro avg       0.78      0.78      0.78       239
-weighted avg       0.78      0.78      0.78       239
+           0       0.77      0.73      0.75       111
+           1       0.82      0.85      0.84       165
+    accuracy                           0.80       276
+   macro avg       0.80      0.79      0.79       276
+weighted avg       0.80      0.80      0.80       276
 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.81      0.84      0.83       101
-         1.0       0.88      0.86      0.87       138
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.85      0.85      0.85       239
+         0.0       0.80      0.86      0.83        98
+         1.0       0.93      0.89      0.91       196
+    accuracy                           0.88       294
+   macro avg       0.86      0.88      0.87       294
+weighted avg       0.88      0.88      0.88       294
 </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.85      0.79       105
-           1       0.87      0.78      0.82       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.81      0.81      0.81       239
+           0       0.72      0.85      0.78       105
+           1       0.90      0.80      0.85       171
+    accuracy                           0.82       276
+   macro avg       0.81      0.82      0.81       276
+weighted avg       0.83      0.82      0.82       276
 </t>
         </is>
       </c>
@@ -1570,22 +1570,22 @@
       <c r="I9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.79      0.79       105
-           1       0.84      0.84      0.84       134
-    accuracy                           0.82       239
-   macro avg       0.82      0.82      0.82       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.84      0.79      0.81       105
+           1       0.79      0.84      0.81        98
+    accuracy                           0.81       203
+   macro avg       0.81      0.81      0.81       203
+weighted avg       0.81      0.81      0.81       203
 </t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.83      0.79       105
-           1       0.86      0.80      0.83       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.74      0.83      0.78       105
+           1       0.89      0.82      0.85       171
+    accuracy                           0.83       276
+   macro avg       0.82      0.83      0.82       276
+weighted avg       0.83      0.83      0.83       276
 </t>
         </is>
       </c>
@@ -1630,48 +1630,114 @@
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.66      0.56      0.60       124
-           1       0.59      0.69      0.63       115
-    accuracy                           0.62       239
-   macro avg       0.62      0.62      0.62       239
-weighted avg       0.62      0.62      0.62       239
+           0       0.67      0.61      0.64       115
+           1       0.54      0.60      0.57        88
+    accuracy                           0.61       203
+   macro avg       0.60      0.61      0.60       203
+weighted avg       0.61      0.61      0.61       203
 </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.50      0.65       189
-           1       0.30      0.80      0.43        50
-    accuracy                           0.56       239
-   macro avg       0.60      0.65      0.54       239
-weighted avg       0.78      0.56      0.60       239
+           0       0.90      0.47      0.62       202
+           1       0.37      0.86      0.52        74
+    accuracy                           0.58       276
+   macro avg       0.64      0.67      0.57       276
+weighted avg       0.76      0.58      0.59       276
 </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.62      0.70       137
-           1       0.61      0.80      0.69       102
-    accuracy                           0.70       239
-   macro avg       0.71      0.71      0.70       239
-weighted avg       0.73      0.70      0.70       239
+           0       0.81      0.56      0.66       152
+           1       0.61      0.84      0.71       124
+    accuracy                           0.68       276
+   macro avg       0.71      0.70      0.68       276
+weighted avg       0.72      0.68      0.68       276
 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.62      0.71       144
-         1.0       0.59      0.83      0.69        95
-    accuracy                           0.70       239
-   macro avg       0.72      0.72      0.70       239
-weighted avg       0.75      0.70      0.70       239
+         0.0       0.82      0.57      0.67       152
+         1.0       0.65      0.87      0.74       142
+    accuracy                           0.71       294
+   macro avg       0.73      0.72      0.71       294
+weighted avg       0.74      0.71      0.70       294
 </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.39      0.99      0.56       105
+           1       0.91      0.06      0.11       171
+    accuracy                           0.41       276
+   macro avg       0.65      0.52      0.34       276
+weighted avg       0.71      0.41      0.28       276
+</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.98      0.47      0.64       218
+           1       0.14      0.90      0.25        21
+    accuracy                           0.51       239
+   macro avg       0.56      0.69      0.44       239
+weighted avg       0.91      0.51      0.60       239
+</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       1.00      0.47      0.64       222
+           1       0.13      1.00      0.23        17
+    accuracy                           0.51       239
+   macro avg       0.56      0.74      0.43       239
+weighted avg       0.94      0.51      0.61       239
+</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.66      0.81      0.73       105
+           1       0.73      0.55      0.63        98
+    accuracy                           0.68       203
+   macro avg       0.69      0.68      0.68       203
+weighted avg       0.69      0.68      0.68       203
+</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.38      1.00      0.55       105
+           1       0.00      0.00      0.00       171
+    accuracy                           0.38       276
+   macro avg       0.19      0.50      0.28       276
+weighted avg       0.14      0.38      0.21       276
+</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.44      1.00      0.61       105
+           1       0.00      0.00      0.00       134
+    accuracy                           0.44       239
+   macro avg       0.22      0.50      0.31       239
+weighted avg       0.19      0.44      0.27       239
+</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.45      0.99      0.62       105
@@ -1682,72 +1748,6 @@
 </t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.98      0.47      0.64       218
-           1       0.14      0.90      0.25        21
-    accuracy                           0.51       239
-   macro avg       0.56      0.69      0.44       239
-weighted avg       0.91      0.51      0.60       239
-</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      0.47      0.64       222
-           1       0.13      1.00      0.23        17
-    accuracy                           0.51       239
-   macro avg       0.56      0.74      0.43       239
-weighted avg       0.94      0.51      0.61       239
-</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.63      0.81      0.71       105
-           1       0.81      0.63      0.71       134
-    accuracy                           0.71       239
-   macro avg       0.72      0.72      0.71       239
-weighted avg       0.73      0.71      0.71       239
-</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
-</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
-</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.45      0.99      0.62       105
-           1       0.88      0.05      0.10       134
-    accuracy                           0.46       239
-   macro avg       0.66      0.52      0.36       239
-weighted avg       0.69      0.46      0.33       239
-</t>
-        </is>
-      </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
@@ -1767,55 +1767,55 @@
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.64      0.73       138
-           1       0.63      0.84      0.72       101
-    accuracy                           0.73       239
-   macro avg       0.74      0.74      0.73       239
-weighted avg       0.76      0.73      0.73       239
+           0       0.85      0.71      0.77       126
+           1       0.62      0.79      0.70        77
+    accuracy                           0.74       203
+   macro avg       0.74      0.75      0.73       203
+weighted avg       0.76      0.74      0.74       203
 </t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.50      0.64       191
-           1       0.28      0.79      0.42        48
-    accuracy                           0.56       239
-   macro avg       0.59      0.64      0.53       239
-weighted avg       0.78      0.56      0.60       239
+           0       0.90      0.44      0.59       215
+           1       0.30      0.84      0.44        61
+    accuracy                           0.53       276
+   macro avg       0.60      0.64      0.52       276
+weighted avg       0.77      0.53      0.56       276
 </t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.64      0.73       138
-           1       0.63      0.84      0.72       101
-    accuracy                           0.73       239
-   macro avg       0.74      0.74      0.73       239
-weighted avg       0.76      0.73      0.73       239
+           0       0.85      0.62      0.71       144
+           1       0.68      0.88      0.77       132
+    accuracy                           0.74       276
+   macro avg       0.76      0.75      0.74       276
+weighted avg       0.77      0.74      0.74       276
 </t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.64      0.73       138
-         1.0       0.63      0.84      0.72       101
-    accuracy                           0.73       239
-   macro avg       0.74      0.74      0.73       239
-weighted avg       0.76      0.73      0.73       239
+         0.0       0.85      0.60      0.70       148
+         1.0       0.69      0.89      0.78       146
+    accuracy                           0.74       294
+   macro avg       0.77      0.75      0.74       294
+weighted avg       0.77      0.74      0.74       294
 </t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.38      1.00      0.55       105
+           1       0.00      0.00      0.00       171
+    accuracy                           0.38       276
+   macro avg       0.19      0.50      0.28       276
+weighted avg       0.14      0.38      0.21       276
 </t>
         </is>
       </c>
@@ -1844,22 +1844,22 @@
       <c r="I11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.58      0.86      0.69       105
-           1       0.82      0.51      0.63       134
-    accuracy                           0.66       239
-   macro avg       0.70      0.68      0.66       239
-weighted avg       0.71      0.66      0.65       239
+           0       0.65      0.86      0.74       105
+           1       0.77      0.51      0.61        98
+    accuracy                           0.69       203
+   macro avg       0.71      0.68      0.68       203
+weighted avg       0.71      0.69      0.68       203
 </t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.38      1.00      0.55       105
+           1       0.00      0.00      0.00       171
+    accuracy                           0.38       276
+   macro avg       0.19      0.50      0.28       276
+weighted avg       0.14      0.38      0.21       276
 </t>
         </is>
       </c>
@@ -1921,77 +1921,77 @@
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.78      0.79       109
-           1       0.82      0.85      0.83       130
-    accuracy                           0.82       239
-   macro avg       0.82      0.81      0.81       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.90      0.81      0.85       116
+           1       0.87      0.93      0.90       160
+    accuracy                           0.88       276
+   macro avg       0.88      0.87      0.88       276
+weighted avg       0.88      0.88      0.88       276
 </t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.84      0.87       112
-           1       0.87      0.91      0.89       127
-    accuracy                           0.88       239
-   macro avg       0.88      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
+           0       0.00      0.00      0.00        15
+           1       0.70      1.00      0.82        35
+    accuracy                           0.70        50
+   macro avg       0.35      0.50      0.41        50
+weighted avg       0.49      0.70      0.58        50
 </t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.62      0.68       130
-           1       0.63      0.77      0.69       109
-    accuracy                           0.69       239
-   macro avg       0.69      0.69      0.69       239
-weighted avg       0.70      0.69      0.69       239
+           0       0.00      0.00      0.00        32
+           1       0.36      1.00      0.53        18
+    accuracy                           0.36        50
+   macro avg       0.18      0.50      0.26        50
+weighted avg       0.13      0.36      0.19        50
 </t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.82      0.87       119
-         1.0       0.84      0.94      0.89       120
-    accuracy                           0.88       239
-   macro avg       0.89      0.88      0.88       239
-weighted avg       0.89      0.88      0.88       239
+         0.0       0.92      0.80      0.85       122
+         1.0       0.85      0.95      0.90       154
+    accuracy                           0.88       276
+   macro avg       0.89      0.87      0.88       276
+weighted avg       0.88      0.88      0.88       276
 </t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.87      0.82       105
-           1       0.88      0.80      0.84       134
-    accuracy                           0.83       239
-   macro avg       0.83      0.83      0.83       239
-weighted avg       0.83      0.83      0.83       239
+           0       0.00      0.00      0.00         0
+           1       1.00      0.66      0.80        50
+    accuracy                           0.66        50
+   macro avg       0.50      0.33      0.40        50
+weighted avg       1.00      0.66      0.80        50
 </t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.99      0.58      0.73       178
-           1       0.45      0.98      0.62        61
-    accuracy                           0.69       239
-   macro avg       0.72      0.78      0.68       239
-weighted avg       0.85      0.69      0.70       239
+           0       0.00      0.00      0.00        34
+           1       0.32      1.00      0.48        16
+    accuracy                           0.32        50
+   macro avg       0.16      0.50      0.24        50
+weighted avg       0.10      0.32      0.16        50
 </t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.67      0.78       145
-           1       0.64      0.91      0.75        94
-    accuracy                           0.77       239
-   macro avg       0.78      0.79      0.77       239
-weighted avg       0.81      0.77      0.77       239
+           0       0.00      0.00      0.00        15
+           1       0.70      1.00      0.82        35
+    accuracy                           0.70        50
+   macro avg       0.35      0.50      0.41        50
+weighted avg       0.49      0.70      0.58        50
 </t>
         </is>
       </c>
@@ -2350,11 +2350,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.83      0.87       115
-         1.0       0.86      0.93      0.89       124
-    accuracy                           0.88       239
-   macro avg       0.89      0.88      0.88       239
-weighted avg       0.89      0.88      0.88       239
+         0.0       0.90      0.77      0.83       122
+         1.0       0.84      0.93      0.88       154
+    accuracy                           0.86       276
+   macro avg       0.87      0.85      0.85       276
+weighted avg       0.86      0.86      0.86       276
 </t>
         </is>
       </c>
@@ -2489,11 +2489,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.89      0.89      0.89       104
-         1.0       0.92      0.91      0.91       135
-    accuracy                           0.90       239
-   macro avg       0.90      0.90      0.90       239
-weighted avg       0.90      0.90      0.90       239
+         0.0       0.85      0.91      0.88        98
+         1.0       0.95      0.91      0.93       178
+    accuracy                           0.91       276
+   macro avg       0.90      0.91      0.90       276
+weighted avg       0.91      0.91      0.91       276
 </t>
         </is>
       </c>
@@ -2628,99 +2628,99 @@
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.76      0.83       127
-         1.0       0.77      0.92      0.84       112
-    accuracy                           0.83       239
-   macro avg       0.84      0.84      0.83       239
-weighted avg       0.85      0.83      0.83       239
+         0.0       0.93      0.75      0.83       131
+         1.0       0.81      0.95      0.87       145
+    accuracy                           0.86       276
+   macro avg       0.87      0.85      0.85       276
+weighted avg       0.87      0.86      0.85       276
 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.75      0.82       128
-           1       0.76      0.92      0.83       111
-    accuracy                           0.83       239
-   macro avg       0.84      0.83      0.83       239
-weighted avg       0.84      0.83      0.83       239
+           0       0.91      0.68      0.78       142
+           1       0.81      0.96      0.88       207
+    accuracy                           0.84       349
+   macro avg       0.86      0.82      0.83       349
+weighted avg       0.85      0.84      0.84       349
 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.69      0.80       143
-           1       0.67      0.94      0.78        96
-    accuracy                           0.79       239
-   macro avg       0.81      0.81      0.79       239
-weighted avg       0.83      0.79      0.79       239
+           0       0.96      0.57      0.72       177
+           1       0.69      0.98      0.81       172
+    accuracy                           0.77       349
+   macro avg       0.83      0.77      0.76       349
+weighted avg       0.83      0.77      0.76       349
 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.69      0.80       143
-           1       0.67      0.94      0.78        96
-    accuracy                           0.79       239
-   macro avg       0.81      0.81      0.79       239
-weighted avg       0.83      0.79      0.79       239
+           0       0.93      0.59      0.72       166
+           1       0.72      0.96      0.82       183
+    accuracy                           0.79       349
+   macro avg       0.83      0.78      0.77       349
+weighted avg       0.82      0.79      0.78       349
 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.81      0.86       118
-           1       0.84      0.93      0.88       121
-    accuracy                           0.87       239
-   macro avg       0.88      0.87      0.87       239
-weighted avg       0.87      0.87      0.87       239
+           0       0.91      0.74      0.82       130
+           1       0.86      0.96      0.91       219
+    accuracy                           0.88       349
+   macro avg       0.89      0.85      0.86       349
+weighted avg       0.88      0.88      0.87       349
 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.79      0.86       124
-           1       0.81      0.94      0.87       115
-    accuracy                           0.86       239
-   macro avg       0.87      0.86      0.86       239
-weighted avg       0.87      0.86      0.86       239
+           0       0.91      0.68      0.78       141
+           1       0.82      0.96      0.88       208
+    accuracy                           0.85       349
+   macro avg       0.86      0.82      0.83       349
+weighted avg       0.86      0.85      0.84       349
 </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.67      0.79       147
-           1       0.64      0.93      0.76        92
-    accuracy                           0.77       239
-   macro avg       0.79      0.80      0.77       239
-weighted avg       0.83      0.77      0.78       239
+           0       0.95      0.52      0.68       191
+           1       0.63      0.97      0.76       158
+    accuracy                           0.72       349
+   macro avg       0.79      0.75      0.72       349
+weighted avg       0.81      0.72      0.71       349
 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.72      0.82       139
-           1       0.71      0.95      0.81       100
-    accuracy                           0.82       239
-   macro avg       0.83      0.83      0.82       239
-weighted avg       0.85      0.82      0.82       239
+           0       0.95      0.63      0.76       158
+           1       0.76      0.97      0.86       191
+    accuracy                           0.82       349
+   macro avg       0.86      0.80      0.81       349
+weighted avg       0.85      0.82      0.81       349
 </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.85      0.85       103
-           1       0.89      0.88      0.88       136
-    accuracy                           0.87       239
-   macro avg       0.86      0.86      0.86       239
-weighted avg       0.87      0.87      0.87       239
+           0       0.84      0.77      0.80       115
+           1       0.89      0.93      0.91       234
+    accuracy                           0.87       349
+   macro avg       0.86      0.85      0.85       349
+weighted avg       0.87      0.87      0.87       349
 </t>
         </is>
       </c>

--- a/smote_Result_sheet_pcos.xlsx
+++ b/smote_Result_sheet_pcos.xlsx
@@ -534,132 +534,132 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.83      0.84       107
-           1       0.82      0.83      0.82        96
-    accuracy                           0.83       203
-   macro avg       0.83      0.83      0.83       203
-weighted avg       0.83      0.83      0.83       203
+           0       0.72      0.89      0.80        44
+           1       0.97      0.91      0.93       158
+    accuracy                           0.90       202
+   macro avg       0.84      0.90      0.87       202
+weighted avg       0.91      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.77      0.83       122
-           1       0.84      0.93      0.88       154
-    accuracy                           0.86       276
-   macro avg       0.87      0.85      0.85       276
-weighted avg       0.86      0.86      0.86       276
+           0       0.83      0.83      0.83        54
+           1       0.94      0.94      0.94       148
+    accuracy                           0.91       202
+   macro avg       0.89      0.89      0.89       202
+weighted avg       0.91      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.56      0.64       137
-           1       0.65      0.80      0.72       139
-    accuracy                           0.68       276
-   macro avg       0.69      0.68      0.68       276
-weighted avg       0.69      0.68      0.68       276
+           0       0.67      0.75      0.71        48
+           1       0.92      0.88      0.90       154
+    accuracy                           0.85       202
+   macro avg       0.79      0.82      0.80       202
+weighted avg       0.86      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.82      0.87       119
-         1.0       0.89      0.96      0.92       175
-    accuracy                           0.90       294
-   macro avg       0.91      0.89      0.90       294
-weighted avg       0.91      0.90      0.90       294
+         0.0       0.78      0.95      0.86        44
+         1.0       0.99      0.92      0.95       158
+    accuracy                           0.93       202
+   macro avg       0.88      0.94      0.91       202
+weighted avg       0.94      0.93      0.93       202
 </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.87      0.79       105
-           1       0.91      0.80      0.85       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.83      0.82       276
-weighted avg       0.84      0.82      0.82       276
+           0       0.54      0.72      0.62        54
+           1       0.88      0.78      0.83       148
+    accuracy                           0.76       202
+   macro avg       0.71      0.75      0.72       202
+weighted avg       0.79      0.76      0.77       202
 </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.98      0.59      0.74       175
-           1       0.46      0.97      0.63        64
-    accuracy                           0.69       239
-   macro avg       0.72      0.78      0.68       239
-weighted avg       0.84      0.69      0.71       239
+           0       0.94      0.55      0.69        93
+           1       0.72      0.97      0.82       109
+    accuracy                           0.78       202
+   macro avg       0.83      0.76      0.76       202
+weighted avg       0.82      0.78      0.76       202
 </t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.69      0.79       142
-           1       0.67      0.93      0.78        97
-    accuracy                           0.79       239
-   macro avg       0.80      0.81      0.79       239
-weighted avg       0.83      0.79      0.79       239
+           0       0.89      0.65      0.75        74
+           1       0.82      0.95      0.88       128
+    accuracy                           0.84       202
+   macro avg       0.86      0.80      0.82       202
+weighted avg       0.85      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.91      0.88       105
-           1       0.90      0.82      0.86        98
-    accuracy                           0.87       203
-   macro avg       0.87      0.87      0.87       203
-weighted avg       0.87      0.87      0.87       203
+           0       1.00      0.83      0.91        54
+           1       0.94      1.00      0.97       148
+    accuracy                           0.96       202
+   macro avg       0.97      0.92      0.94       202
+weighted avg       0.96      0.96      0.95       202
 </t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.70      0.94      0.80       105
-           1       0.96      0.75      0.84       171
-    accuracy                           0.82       276
-   macro avg       0.83      0.85      0.82       276
-weighted avg       0.86      0.82      0.82       276
+           0       0.67      0.85      0.75        54
+           1       0.94      0.84      0.89       148
+    accuracy                           0.85       202
+   macro avg       0.80      0.85      0.82       202
+weighted avg       0.87      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       1.00      0.01      0.01       148
+    accuracy                           0.27       202
+   macro avg       0.63      0.50      0.22       202
+weighted avg       0.80      0.27      0.12       202
 </t>
         </is>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.95      0.81       105
-           1       0.95      0.69      0.80       134
-    accuracy                           0.81       239
-   macro avg       0.83      0.82      0.81       239
-weighted avg       0.84      0.81      0.81       239
+           0       0.64      0.87      0.74        54
+           1       0.95      0.82      0.88       148
+    accuracy                           0.84       202
+   macro avg       0.79      0.85      0.81       202
+weighted avg       0.87      0.84      0.84       202
 </t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.69      0.78       135
-           1       0.69      0.88      0.77       104
-    accuracy                           0.77       239
-   macro avg       0.79      0.79      0.77       239
-weighted avg       0.80      0.77      0.77       239
+           0       0.78      0.59      0.67        71
+           1       0.80      0.91      0.85       131
+    accuracy                           0.80       202
+   macro avg       0.79      0.75      0.76       202
+weighted avg       0.79      0.80      0.79       202
 </t>
         </is>
       </c>
@@ -671,132 +671,132 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.78      0.84       122
-           1       0.72      0.88      0.79        81
-    accuracy                           0.82       203
-   macro avg       0.81      0.83      0.82       203
-weighted avg       0.83      0.82      0.82       203
+           0       0.74      0.75      0.75        53
+           1       0.91      0.91      0.91       149
+    accuracy                           0.87       202
+   macro avg       0.83      0.83      0.83       202
+weighted avg       0.87      0.87      0.87       202
 </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.79      0.84       119
-           1       0.85      0.93      0.89       157
-    accuracy                           0.87       276
-   macro avg       0.87      0.86      0.86       276
-weighted avg       0.87      0.87      0.87       276
+           0       0.80      0.72      0.75        60
+           1       0.89      0.92      0.90       142
+    accuracy                           0.86       202
+   macro avg       0.84      0.82      0.83       202
+weighted avg       0.86      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.63      0.69       127
-           1       0.73      0.83      0.78       149
-    accuracy                           0.74       276
-   macro avg       0.74      0.73      0.73       276
-weighted avg       0.74      0.74      0.74       276
+           0       0.67      0.95      0.78        38
+           1       0.99      0.89      0.94       164
+    accuracy                           0.90       202
+   macro avg       0.83      0.92      0.86       202
+weighted avg       0.93      0.90      0.91       202
 </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.78      0.85       126
-         1.0       0.85      0.96      0.90       168
-    accuracy                           0.88       294
-   macro avg       0.89      0.87      0.88       294
-weighted avg       0.89      0.88      0.88       294
+         0.0       0.76      0.95      0.85        43
+         1.0       0.99      0.92      0.95       159
+    accuracy                           0.93       202
+   macro avg       0.87      0.94      0.90       202
+weighted avg       0.94      0.93      0.93       202
 </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.88      0.79       105
-           1       0.91      0.80      0.85       171
-    accuracy                           0.83       276
-   macro avg       0.82      0.84      0.82       276
-weighted avg       0.84      0.83      0.83       276
+           0       0.75      0.81      0.78        54
+           1       0.93      0.90      0.91       148
+    accuracy                           0.88       202
+   macro avg       0.84      0.86      0.85       202
+weighted avg       0.88      0.88      0.88       202
 </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.97      0.63      0.76       163
-           1       0.54      0.96      0.70        76
-    accuracy                           0.73       239
-   macro avg       0.76      0.79      0.73       239
-weighted avg       0.84      0.73      0.74       239
+           0       0.89      0.54      0.67        89
+           1       0.72      0.95      0.82       113
+    accuracy                           0.77       202
+   macro avg       0.81      0.74      0.75       202
+weighted avg       0.80      0.77      0.75       202
 </t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.72      0.82       138
-           1       0.72      0.95      0.82       101
-    accuracy                           0.82       239
-   macro avg       0.83      0.84      0.82       239
-weighted avg       0.85      0.82      0.82       239
+           0       0.85      0.65      0.74        71
+           1       0.83      0.94      0.88       131
+    accuracy                           0.84       202
+   macro avg       0.84      0.79      0.81       202
+weighted avg       0.84      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.94      0.88       105
-           1       0.93      0.80      0.86        98
-    accuracy                           0.87       203
-   macro avg       0.88      0.87      0.87       203
-weighted avg       0.88      0.87      0.87       203
+           0       0.94      0.83      0.88        54
+           1       0.94      0.98      0.96       148
+    accuracy                           0.94       202
+   macro avg       0.94      0.91      0.92       202
+weighted avg       0.94      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.95      0.83       105
-           1       0.96      0.78      0.86       171
-    accuracy                           0.85       276
-   macro avg       0.85      0.87      0.85       276
-weighted avg       0.87      0.85      0.85       276
+           0       0.73      0.91      0.81        54
+           1       0.96      0.88      0.92       148
+    accuracy                           0.89       202
+   macro avg       0.85      0.89      0.86       202
+weighted avg       0.90      0.89      0.89       202
 </t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.70      0.94      0.80       105
-           1       0.94      0.68      0.79       134
-    accuracy                           0.79       239
-   macro avg       0.82      0.81      0.79       239
-weighted avg       0.83      0.79      0.79       239
+           0       0.64      0.93      0.76        54
+           1       0.97      0.81      0.88       148
+    accuracy                           0.84       202
+   macro avg       0.80      0.87      0.82       202
+weighted avg       0.88      0.84      0.85       202
 </t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.70      0.91      0.79        80
-           1       0.95      0.80      0.87       159
-    accuracy                           0.84       239
-   macro avg       0.82      0.86      0.83       239
-weighted avg       0.86      0.84      0.84       239
+           0       0.48      0.70      0.57        37
+           1       0.93      0.83      0.88       165
+    accuracy                           0.81       202
+   macro avg       0.70      0.77      0.72       202
+weighted avg       0.84      0.81      0.82       202
 </t>
         </is>
       </c>
@@ -808,132 +808,132 @@
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.78      0.80       110
-           1       0.76      0.80      0.77        93
-    accuracy                           0.79       203
-   macro avg       0.79      0.79      0.79       203
-weighted avg       0.79      0.79      0.79       203
+           0       0.76      0.85      0.80        48
+           1       0.95      0.92      0.93       154
+    accuracy                           0.90       202
+   macro avg       0.86      0.88      0.87       202
+weighted avg       0.91      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.74      0.80       123
-           1       0.81      0.91      0.86       153
-    accuracy                           0.83       276
-   macro avg       0.84      0.82      0.83       276
-weighted avg       0.84      0.83      0.83       276
+           0       0.74      0.73      0.73        55
+           1       0.90      0.90      0.90       147
+    accuracy                           0.86       202
+   macro avg       0.82      0.82      0.82       202
+weighted avg       0.86      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.67      0.73       126
-           1       0.75      0.86      0.80       150
-    accuracy                           0.77       276
-   macro avg       0.78      0.76      0.77       276
-weighted avg       0.78      0.77      0.77       276
+           0       0.63      0.94      0.76        36
+           1       0.99      0.88      0.93       166
+    accuracy                           0.89       202
+   macro avg       0.81      0.91      0.84       202
+weighted avg       0.92      0.89      0.90       202
 </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.86      0.89       114
-         1.0       0.92      0.96      0.94       180
-    accuracy                           0.92       294
-   macro avg       0.92      0.91      0.92       294
-weighted avg       0.92      0.92      0.92       294
+         0.0       0.80      1.00      0.89        43
+         1.0       1.00      0.93      0.96       159
+    accuracy                           0.95       202
+   macro avg       0.90      0.97      0.93       202
+weighted avg       0.96      0.95      0.95       202
 </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.90      0.81       105
-           1       0.93      0.80      0.86       171
-    accuracy                           0.84       276
-   macro avg       0.83      0.85      0.83       276
-weighted avg       0.85      0.84      0.84       276
+           0       0.66      0.87      0.75        54
+           1       0.95      0.84      0.89       148
+    accuracy                           0.85       202
+   macro avg       0.80      0.85      0.82       202
+weighted avg       0.87      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.97      0.67      0.79       153
-           1       0.62      0.97      0.75        86
-    accuracy                           0.77       239
-   macro avg       0.80      0.82      0.77       239
-weighted avg       0.84      0.77      0.78       239
+           0       0.93      0.56      0.69        90
+           1       0.73      0.96      0.83       112
+    accuracy                           0.78       202
+   macro avg       0.83      0.76      0.76       202
+weighted avg       0.82      0.78      0.77       202
 </t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.74      0.84       136
-           1       0.74      0.96      0.84       103
-    accuracy                           0.84       239
-   macro avg       0.85      0.85      0.84       239
-weighted avg       0.87      0.84      0.84       239
+           0       0.81      0.60      0.69        73
+           1       0.80      0.92      0.86       129
+    accuracy                           0.81       202
+   macro avg       0.81      0.76      0.78       202
+weighted avg       0.81      0.81      0.80       202
 </t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.92      0.88       105
-           1       0.91      0.81      0.85        98
-    accuracy                           0.87       203
-   macro avg       0.87      0.86      0.87       203
-weighted avg       0.87      0.87      0.87       203
+           0       0.96      0.83      0.89        54
+           1       0.94      0.99      0.96       148
+    accuracy                           0.95       202
+   macro avg       0.95      0.91      0.93       202
+weighted avg       0.95      0.95      0.94       202
 </t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.96      0.83       105
-           1       0.97      0.79      0.87       171
-    accuracy                           0.86       276
-   macro avg       0.85      0.88      0.85       276
-weighted avg       0.88      0.86      0.86       276
+           0       0.67      0.93      0.78        54
+           1       0.97      0.83      0.89       148
+    accuracy                           0.86       202
+   macro avg       0.82      0.88      0.83       202
+weighted avg       0.89      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.70      0.93      0.80       105
-           1       0.93      0.68      0.78       134
-    accuracy                           0.79       239
-   macro avg       0.81      0.81      0.79       239
-weighted avg       0.83      0.79      0.79       239
+           0       0.63      0.93      0.75        54
+           1       0.97      0.80      0.88       148
+    accuracy                           0.84       202
+   macro avg       0.80      0.86      0.82       202
+weighted avg       0.88      0.84      0.84       202
 </t>
         </is>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.76      0.78      0.77       102
-           1       0.84      0.82      0.83       137
-    accuracy                           0.80       239
-   macro avg       0.80      0.80      0.80       239
-weighted avg       0.80      0.80      0.80       239
+           0       0.54      0.63      0.58        46
+           1       0.89      0.84      0.86       156
+    accuracy                           0.79       202
+   macro avg       0.71      0.74      0.72       202
+weighted avg       0.81      0.79      0.80       202
 </t>
         </is>
       </c>
@@ -945,132 +945,132 @@
       <c r="B5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.85      0.84       104
-           1       0.84      0.83      0.83        99
-    accuracy                           0.84       203
-   macro avg       0.84      0.84      0.84       203
-weighted avg       0.84      0.84      0.84       203
+           0       0.74      0.93      0.82        43
+           1       0.98      0.91      0.94       159
+    accuracy                           0.92       202
+   macro avg       0.86      0.92      0.88       202
+weighted avg       0.93      0.92      0.92       202
 </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.79      0.82       114
-           1       0.86      0.91      0.88       162
-    accuracy                           0.86       276
-   macro avg       0.86      0.85      0.85       276
-weighted avg       0.86      0.86      0.86       276
+           0       0.76      0.67      0.71        61
+           1       0.86      0.91      0.89       141
+    accuracy                           0.84       202
+   macro avg       0.81      0.79      0.80       202
+weighted avg       0.83      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.65      0.73       134
-           1       0.73      0.87      0.79       142
-    accuracy                           0.76       276
-   macro avg       0.78      0.76      0.76       276
-weighted avg       0.78      0.76      0.76       276
+           0       0.67      0.90      0.77        40
+           1       0.97      0.89      0.93       162
+    accuracy                           0.89       202
+   macro avg       0.82      0.89      0.85       202
+weighted avg       0.91      0.89      0.90       202
 </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.91      0.83      0.87       116
-         1.0       0.89      0.95      0.92       178
-    accuracy                           0.90       294
-   macro avg       0.90      0.89      0.89       294
-weighted avg       0.90      0.90      0.90       294
+         0.0       0.78      0.98      0.87        43
+         1.0       0.99      0.92      0.96       159
+    accuracy                           0.94       202
+   macro avg       0.89      0.95      0.91       202
+weighted avg       0.95      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.80      0.88      0.84       105
-           1       0.92      0.87      0.89       171
-    accuracy                           0.87       276
-   macro avg       0.86      0.87      0.86       276
-weighted avg       0.87      0.87      0.87       276
+           0       0.54      0.80      0.64        54
+           1       0.91      0.75      0.82       148
+    accuracy                           0.76       202
+   macro avg       0.72      0.77      0.73       202
+weighted avg       0.81      0.76      0.77       202
 </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.65      0.77       150
-           1       0.61      0.92      0.74        89
-    accuracy                           0.75       239
-   macro avg       0.77      0.79      0.75       239
-weighted avg       0.81      0.75      0.76       239
+           0       0.87      0.44      0.59       106
+           1       0.60      0.93      0.73        96
+    accuracy                           0.67       202
+   macro avg       0.74      0.69      0.66       202
+weighted avg       0.74      0.67      0.65       202
 </t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.73      0.81       131
-           1       0.74      0.92      0.82       108
-    accuracy                           0.82       239
-   macro avg       0.83      0.82      0.82       239
-weighted avg       0.83      0.82      0.82       239
+           0       0.80      0.55      0.65        78
+           1       0.76      0.91      0.83       124
+    accuracy                           0.77       202
+   macro avg       0.78      0.73      0.74       202
+weighted avg       0.78      0.77      0.76       202
 </t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.89      0.88       105
-           1       0.88      0.86      0.87        98
-    accuracy                           0.87       203
-   macro avg       0.87      0.87      0.87       203
-weighted avg       0.87      0.87      0.87       203
+           0       0.98      0.81      0.89        54
+           1       0.94      0.99      0.96       148
+    accuracy                           0.95       202
+   macro avg       0.96      0.90      0.93       202
+weighted avg       0.95      0.95      0.94       202
 </t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.92      0.83       105
-           1       0.95      0.81      0.87       171
-    accuracy                           0.86       276
-   macro avg       0.85      0.87      0.85       276
-weighted avg       0.87      0.86      0.86       276
+           0       0.58      0.83      0.69        54
+           1       0.93      0.78      0.85       148
+    accuracy                           0.80       202
+   macro avg       0.76      0.81      0.77       202
+weighted avg       0.84      0.80      0.81       202
 </t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.92      0.84       105
-           1       0.93      0.78      0.85       134
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.86      0.85      0.85       239
+           0       0.57      0.89      0.70        54
+           1       0.95      0.76      0.84       148
+    accuracy                           0.79       202
+   macro avg       0.76      0.82      0.77       202
+weighted avg       0.85      0.79      0.80       202
 </t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.77      0.80       111
-           1       0.81      0.85      0.83       128
-    accuracy                           0.82       239
-   macro avg       0.82      0.81      0.81       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.54      0.62      0.57        47
+           1       0.88      0.84      0.86       155
+    accuracy                           0.79       202
+   macro avg       0.71      0.73      0.72       202
+weighted avg       0.80      0.79      0.79       202
 </t>
         </is>
       </c>
@@ -1082,132 +1082,132 @@
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.80      0.84       115
-           1       0.77      0.85      0.81        88
-    accuracy                           0.82       203
-   macro avg       0.82      0.83      0.82       203
-weighted avg       0.83      0.82      0.82       203
+           0       0.67      0.86      0.75        42
+           1       0.96      0.89      0.92       160
+    accuracy                           0.88       202
+   macro avg       0.81      0.87      0.84       202
+weighted avg       0.90      0.88      0.89       202
 </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.75      0.78       115
-           1       0.83      0.88      0.86       161
-    accuracy                           0.83       276
-   macro avg       0.82      0.81      0.82       276
-weighted avg       0.83      0.83      0.82       276
+           0       0.76      0.62      0.68        66
+           1       0.83      0.90      0.87       136
+    accuracy                           0.81       202
+   macro avg       0.80      0.76      0.77       202
+weighted avg       0.81      0.81      0.81       202
 </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.66      0.73       132
-           1       0.74      0.88      0.80       144
-    accuracy                           0.77       276
-   macro avg       0.78      0.77      0.77       276
-weighted avg       0.78      0.77      0.77       276
+           0       0.72      0.93      0.81        42
+           1       0.98      0.91      0.94       160
+    accuracy                           0.91       202
+   macro avg       0.85      0.92      0.88       202
+weighted avg       0.93      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.84      0.84       106
-         1.0       0.91      0.91      0.91       188
-    accuracy                           0.89       294
-   macro avg       0.88      0.88      0.88       294
-weighted avg       0.89      0.89      0.89       294
+         0.0       0.74      0.93      0.82        43
+         1.0       0.98      0.91      0.94       159
+    accuracy                           0.92       202
+   macro avg       0.86      0.92      0.88       202
+weighted avg       0.93      0.92      0.92       202
 </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.88      0.79       105
-           1       0.91      0.78      0.84       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.83      0.81       276
-weighted avg       0.84      0.82      0.82       276
+           0       0.50      0.76      0.60        54
+           1       0.89      0.72      0.80       148
+    accuracy                           0.73       202
+   macro avg       0.70      0.74      0.70       202
+weighted avg       0.79      0.73      0.75       202
 </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.74      0.80       125
-           1       0.75      0.89      0.81       114
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.76      0.48      0.59        85
+           1       0.70      0.89      0.78       117
+    accuracy                           0.72       202
+   macro avg       0.73      0.69      0.69       202
+weighted avg       0.73      0.72      0.70       202
 </t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.75      0.79       119
-           1       0.78      0.87      0.82       120
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.81      0.81      0.81       239
+           0       0.78      0.53      0.63        80
+           1       0.74      0.90      0.81       122
+    accuracy                           0.75       202
+   macro avg       0.76      0.71      0.72       202
+weighted avg       0.76      0.75      0.74       202
 </t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.81      0.84       105
-           1       0.81      0.87      0.84        98
-    accuracy                           0.84       203
-   macro avg       0.84      0.84      0.84       203
-weighted avg       0.84      0.84      0.84       203
+           0       0.91      0.76      0.83        54
+           1       0.92      0.97      0.94       148
+    accuracy                           0.92       202
+   macro avg       0.91      0.87      0.89       202
+weighted avg       0.92      0.92      0.91       202
 </t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.82      0.78       105
-           1       0.88      0.82      0.85       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.82      0.82       276
-weighted avg       0.83      0.82      0.82       276
+           0       0.55      0.74      0.63        54
+           1       0.89      0.78      0.83       148
+    accuracy                           0.77       202
+   macro avg       0.72      0.76      0.73       202
+weighted avg       0.80      0.77      0.78       202
 </t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.85      0.79       105
-           1       0.87      0.78      0.82       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.81      0.81      0.81       239
+           0       0.53      0.76      0.63        54
+           1       0.90      0.76      0.82       148
+    accuracy                           0.76       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.76      0.77       202
 </t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.79      0.76        98
-           1       0.84      0.80      0.82       141
-    accuracy                           0.79       239
-   macro avg       0.79      0.79      0.79       239
-weighted avg       0.80      0.79      0.80       239
+           0       0.54      0.58      0.56        50
+           1       0.86      0.84      0.85       152
+    accuracy                           0.77       202
+   macro avg       0.70      0.71      0.70       202
+weighted avg       0.78      0.77      0.78       202
 </t>
         </is>
       </c>
@@ -1219,132 +1219,132 @@
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.83      0.79        95
-           1       0.84      0.76      0.80       108
-    accuracy                           0.79       203
-   macro avg       0.79      0.80      0.79       203
-weighted avg       0.80      0.79      0.79       203
+           0       0.70      0.88      0.78        43
+           1       0.97      0.90      0.93       159
+    accuracy                           0.90       202
+   macro avg       0.83      0.89      0.86       202
+weighted avg       0.91      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.75      0.79       117
-           1       0.83      0.89      0.86       159
-    accuracy                           0.83       276
-   macro avg       0.83      0.82      0.83       276
-weighted avg       0.83      0.83      0.83       276
+           0       0.78      0.58      0.67        72
+           1       0.80      0.91      0.85       130
+    accuracy                           0.79       202
+   macro avg       0.79      0.75      0.76       202
+weighted avg       0.79      0.79      0.78       202
 </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.67      0.74       130
-           1       0.75      0.88      0.81       146
-    accuracy                           0.78       276
-   macro avg       0.79      0.77      0.77       276
-weighted avg       0.79      0.78      0.78       276
+           0       0.72      0.89      0.80        44
+           1       0.97      0.91      0.93       158
+    accuracy                           0.90       202
+   macro avg       0.84      0.90      0.87       202
+weighted avg       0.91      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.83      0.87      0.85       100
-         1.0       0.93      0.91      0.92       194
-    accuracy                           0.89       294
-   macro avg       0.88      0.89      0.88       294
-weighted avg       0.90      0.89      0.90       294
+         0.0       0.72      0.93      0.81        42
+         1.0       0.98      0.91      0.94       160
+    accuracy                           0.91       202
+   macro avg       0.85      0.92      0.88       202
+weighted avg       0.93      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.86      0.79       105
-           1       0.90      0.80      0.85       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.83      0.82       276
-weighted avg       0.83      0.82      0.82       276
+           0       0.56      0.78      0.65        54
+           1       0.91      0.78      0.84       148
+    accuracy                           0.78       202
+   macro avg       0.73      0.78      0.74       202
+weighted avg       0.81      0.78      0.79       202
 </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.70      0.78       133
-           1       0.70      0.89      0.78       106
-    accuracy                           0.78       239
-   macro avg       0.79      0.79      0.78       239
-weighted avg       0.80      0.78      0.78       239
+           0       0.78      0.51      0.61        83
+           1       0.72      0.90      0.80       119
+    accuracy                           0.74       202
+   macro avg       0.75      0.70      0.71       202
+weighted avg       0.75      0.74      0.72       202
 </t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.74      0.79       120
-           1       0.77      0.87      0.81       119
-    accuracy                           0.80       239
-   macro avg       0.81      0.80      0.80       239
-weighted avg       0.81      0.80      0.80       239
+           0       0.80      0.51      0.62        84
+           1       0.72      0.91      0.80       118
+    accuracy                           0.74       202
+   macro avg       0.76      0.71      0.71       202
+weighted avg       0.75      0.74      0.73       202
 </t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.81      0.85       105
-           1       0.81      0.89      0.85        98
-    accuracy                           0.85       203
-   macro avg       0.85      0.85      0.85       203
-weighted avg       0.85      0.85      0.85       203
+           0       0.93      0.72      0.81        54
+           1       0.91      0.98      0.94       148
+    accuracy                           0.91       202
+   macro avg       0.92      0.85      0.88       202
+weighted avg       0.91      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.84      0.78       105
-           1       0.89      0.81      0.85       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.82      0.81       276
-weighted avg       0.83      0.82      0.82       276
+           0       0.55      0.76      0.64        54
+           1       0.90      0.78      0.83       148
+    accuracy                           0.77       202
+   macro avg       0.73      0.77      0.74       202
+weighted avg       0.81      0.77      0.78       202
 </t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.46      0.87      0.60        54
+           1       0.93      0.62      0.74       148
+    accuracy                           0.69       202
+   macro avg       0.69      0.75      0.67       202
+weighted avg       0.80      0.69      0.71       202
 </t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.86      0.79       105
-           1       0.87      0.76      0.81       134
-    accuracy                           0.80       239
-   macro avg       0.80      0.81      0.80       239
-weighted avg       0.81      0.80      0.80       239
+           0       0.54      0.78      0.64        54
+           1       0.90      0.76      0.82       148
+    accuracy                           0.76       202
+   macro avg       0.72      0.77      0.73       202
+weighted avg       0.81      0.76      0.77       202
 </t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.78      0.76       100
-           1       0.84      0.81      0.82       139
-    accuracy                           0.79       239
-   macro avg       0.79      0.79      0.79       239
-weighted avg       0.80      0.79      0.80       239
+           0       0.41      0.55      0.47        40
+           1       0.88      0.80      0.84       162
+    accuracy                           0.75       202
+   macro avg       0.64      0.68      0.65       202
+weighted avg       0.79      0.75      0.77       202
 </t>
         </is>
       </c>
@@ -1356,132 +1356,132 @@
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.76      0.74        99
-           1       0.76      0.71      0.73       104
-    accuracy                           0.73       203
-   macro avg       0.73      0.73      0.73       203
-weighted avg       0.74      0.73      0.73       203
+           0       0.78      0.91      0.84        46
+           1       0.97      0.92      0.95       156
+    accuracy                           0.92       202
+   macro avg       0.88      0.92      0.89       202
+weighted avg       0.93      0.92      0.92       202
 </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.76      0.80       116
-           1       0.84      0.89      0.86       160
-    accuracy                           0.84       276
-   macro avg       0.84      0.83      0.83       276
-weighted avg       0.84      0.84      0.84       276
+           0       0.74      0.63      0.68        63
+           1       0.84      0.90      0.87       139
+    accuracy                           0.82       202
+   macro avg       0.79      0.77      0.78       202
+weighted avg       0.81      0.82      0.81       202
 </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.73      0.75       111
-           1       0.82      0.85      0.84       165
-    accuracy                           0.80       276
-   macro avg       0.80      0.79      0.79       276
-weighted avg       0.80      0.80      0.80       276
+           0       0.70      0.86      0.78        44
+           1       0.96      0.90      0.93       158
+    accuracy                           0.89       202
+   macro avg       0.83      0.88      0.85       202
+weighted avg       0.90      0.89      0.89       202
 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.80      0.86      0.83        98
-         1.0       0.93      0.89      0.91       196
-    accuracy                           0.88       294
-   macro avg       0.86      0.88      0.87       294
-weighted avg       0.88      0.88      0.88       294
+         0.0       0.72      0.93      0.81        42
+         1.0       0.98      0.91      0.94       160
+    accuracy                           0.91       202
+   macro avg       0.85      0.92      0.88       202
+weighted avg       0.93      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.85      0.78       105
-           1       0.90      0.80      0.85       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.82      0.81       276
-weighted avg       0.83      0.82      0.82       276
+           0       0.52      0.80      0.63        54
+           1       0.91      0.73      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.75      0.76       202
 </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.76      0.81       120
-           1       0.78      0.88      0.83       119
-    accuracy                           0.82       239
-   macro avg       0.83      0.82      0.82       239
-weighted avg       0.83      0.82      0.82       239
+           0       0.78      0.52      0.62        81
+           1       0.74      0.90      0.81       121
+    accuracy                           0.75       202
+   macro avg       0.76      0.71      0.72       202
+weighted avg       0.75      0.75      0.73       202
 </t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.77      0.81       115
-           1       0.81      0.87      0.84       124
-    accuracy                           0.82       239
-   macro avg       0.83      0.82      0.82       239
-weighted avg       0.83      0.82      0.82       239
+           0       0.78      0.55      0.64        77
+           1       0.76      0.90      0.83       125
+    accuracy                           0.77       202
+   macro avg       0.77      0.72      0.73       202
+weighted avg       0.77      0.77      0.76       202
 </t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.79      0.81       105
-           1       0.79      0.84      0.81        98
-    accuracy                           0.81       203
-   macro avg       0.81      0.81      0.81       203
-weighted avg       0.81      0.81      0.81       203
+           0       0.93      0.72      0.81        54
+           1       0.91      0.98      0.94       148
+    accuracy                           0.91       202
+   macro avg       0.92      0.85      0.88       202
+weighted avg       0.91      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.83      0.78       105
-           1       0.89      0.82      0.85       171
-    accuracy                           0.83       276
-   macro avg       0.82      0.83      0.82       276
-weighted avg       0.83      0.83      0.83       276
+           0       0.53      0.78      0.63        54
+           1       0.90      0.74      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.75      0.76       202
 </t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.56      0.99      0.71       105
-           1       0.98      0.38      0.55       134
-    accuracy                           0.65       239
-   macro avg       0.77      0.69      0.63       239
-weighted avg       0.79      0.65      0.62       239
+           0       0.46      0.87      0.60        54
+           1       0.93      0.62      0.74       148
+    accuracy                           0.69       202
+   macro avg       0.69      0.75      0.67       202
+weighted avg       0.80      0.69      0.71       202
 </t>
         </is>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.88      0.80       105
-           1       0.89      0.76      0.82       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.82      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.52      0.80      0.63        54
+           1       0.91      0.73      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.75      0.76       202
 </t>
         </is>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.79      0.75        95
-           1       0.85      0.79      0.82       144
-    accuracy                           0.79       239
-   macro avg       0.78      0.79      0.79       239
-weighted avg       0.80      0.79      0.79       239
+           0       0.57      0.57      0.57        54
+           1       0.84      0.84      0.84       148
+    accuracy                           0.77       202
+   macro avg       0.71      0.71      0.71       202
+weighted avg       0.77      0.77      0.77       202
 </t>
         </is>
       </c>
@@ -1493,132 +1493,132 @@
       <c r="B9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.77      0.77       105
-           1       0.76      0.76      0.76        98
-    accuracy                           0.76       203
-   macro avg       0.76      0.76      0.76       203
-weighted avg       0.76      0.76      0.76       203
+           0       0.80      0.91      0.85        47
+           1       0.97      0.93      0.95       155
+    accuracy                           0.93       202
+   macro avg       0.88      0.92      0.90       202
+weighted avg       0.93      0.93      0.93       202
 </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.76      0.80       116
-           1       0.84      0.89      0.86       160
-    accuracy                           0.84       276
-   macro avg       0.84      0.83      0.83       276
-weighted avg       0.84      0.84      0.84       276
+           0       0.74      0.63      0.68        63
+           1       0.84      0.90      0.87       139
+    accuracy                           0.82       202
+   macro avg       0.79      0.77      0.78       202
+weighted avg       0.81      0.82      0.81       202
 </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.73      0.75       111
-           1       0.82      0.85      0.84       165
-    accuracy                           0.80       276
-   macro avg       0.80      0.79      0.79       276
-weighted avg       0.80      0.80      0.80       276
+           0       0.70      0.86      0.78        44
+           1       0.96      0.90      0.93       158
+    accuracy                           0.89       202
+   macro avg       0.83      0.88      0.85       202
+weighted avg       0.90      0.89      0.89       202
 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.80      0.86      0.83        98
-         1.0       0.93      0.89      0.91       196
-    accuracy                           0.88       294
-   macro avg       0.86      0.88      0.87       294
-weighted avg       0.88      0.88      0.88       294
+         0.0       0.74      0.93      0.82        43
+         1.0       0.98      0.91      0.94       159
+    accuracy                           0.92       202
+   macro avg       0.86      0.92      0.88       202
+weighted avg       0.93      0.92      0.92       202
 </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.85      0.78       105
-           1       0.90      0.80      0.85       171
-    accuracy                           0.82       276
-   macro avg       0.81      0.82      0.81       276
-weighted avg       0.83      0.82      0.82       276
+           0       0.52      0.80      0.63        54
+           1       0.91      0.73      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.75      0.76       202
 </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.76      0.81       120
-           1       0.78      0.88      0.83       119
-    accuracy                           0.82       239
-   macro avg       0.83      0.82      0.82       239
-weighted avg       0.83      0.82      0.82       239
+           0       0.78      0.52      0.62        81
+           1       0.74      0.90      0.81       121
+    accuracy                           0.75       202
+   macro avg       0.76      0.71      0.72       202
+weighted avg       0.75      0.75      0.73       202
 </t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.77      0.81       115
-           1       0.81      0.87      0.84       124
-    accuracy                           0.82       239
-   macro avg       0.83      0.82      0.82       239
-weighted avg       0.83      0.82      0.82       239
+           0       0.78      0.55      0.64        77
+           1       0.76      0.90      0.83       125
+    accuracy                           0.77       202
+   macro avg       0.77      0.72      0.73       202
+weighted avg       0.77      0.77      0.76       202
 </t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.79      0.81       105
-           1       0.79      0.84      0.81        98
-    accuracy                           0.81       203
-   macro avg       0.81      0.81      0.81       203
-weighted avg       0.81      0.81      0.81       203
+           0       0.93      0.72      0.81        54
+           1       0.91      0.98      0.94       148
+    accuracy                           0.91       202
+   macro avg       0.92      0.85      0.88       202
+weighted avg       0.91      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.83      0.78       105
-           1       0.89      0.82      0.85       171
-    accuracy                           0.83       276
-   macro avg       0.82      0.83      0.82       276
-weighted avg       0.83      0.83      0.83       276
+           0       0.53      0.78      0.63        54
+           1       0.90      0.74      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.75      0.76       202
 </t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.56      0.99      0.71       105
-           1       0.98      0.38      0.55       134
-    accuracy                           0.65       239
-   macro avg       0.77      0.69      0.63       239
-weighted avg       0.79      0.65      0.62       239
+           0       0.46      0.87      0.60        54
+           1       0.93      0.62      0.74       148
+    accuracy                           0.69       202
+   macro avg       0.69      0.75      0.67       202
+weighted avg       0.80      0.69      0.71       202
 </t>
         </is>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.74      0.88      0.80       105
-           1       0.89      0.76      0.82       134
-    accuracy                           0.81       239
-   macro avg       0.81      0.82      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.52      0.80      0.63        54
+           1       0.91      0.73      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.71      0.76      0.72       202
+weighted avg       0.80      0.75      0.76       202
 </t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.79      0.75        95
-           1       0.85      0.79      0.82       144
-    accuracy                           0.79       239
-   macro avg       0.78      0.79      0.79       239
-weighted avg       0.80      0.79      0.79       239
+           0       0.57      0.57      0.57        54
+           1       0.84      0.84      0.84       148
+    accuracy                           0.77       202
+   macro avg       0.71      0.71      0.71       202
+weighted avg       0.77      0.77      0.77       202
 </t>
         </is>
       </c>
@@ -1630,132 +1630,132 @@
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.67      0.61      0.64       115
-           1       0.54      0.60      0.57        88
-    accuracy                           0.61       203
-   macro avg       0.60      0.61      0.60       203
-weighted avg       0.61      0.61      0.61       203
+           0       0.67      0.73      0.70        49
+           1       0.91      0.88      0.90       153
+    accuracy                           0.85       202
+   macro avg       0.79      0.81      0.80       202
+weighted avg       0.85      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.47      0.62       202
-           1       0.37      0.86      0.52        74
-    accuracy                           0.58       276
-   macro avg       0.64      0.67      0.57       276
-weighted avg       0.76      0.58      0.59       276
+           0       0.93      0.33      0.49       150
+           1       0.32      0.92      0.48        52
+    accuracy                           0.49       202
+   macro avg       0.63      0.63      0.49       202
+weighted avg       0.77      0.49      0.49       202
 </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.81      0.56      0.66       152
-           1       0.61      0.84      0.71       124
-    accuracy                           0.68       276
-   macro avg       0.71      0.70      0.68       276
-weighted avg       0.72      0.68      0.68       276
+           0       0.76      0.72      0.74        57
+           1       0.89      0.91      0.90       145
+    accuracy                           0.86       202
+   macro avg       0.83      0.81      0.82       202
+weighted avg       0.85      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.82      0.57      0.67       152
-         1.0       0.65      0.87      0.74       142
-    accuracy                           0.71       294
-   macro avg       0.73      0.72      0.71       294
-weighted avg       0.74      0.71      0.70       294
+         0.0       0.78      0.75      0.76        56
+         1.0       0.91      0.92      0.91       146
+    accuracy                           0.87       202
+   macro avg       0.84      0.83      0.84       202
+weighted avg       0.87      0.87      0.87       202
 </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.39      0.99      0.56       105
-           1       0.91      0.06      0.11       171
-    accuracy                           0.41       276
-   macro avg       0.65      0.52      0.34       276
-weighted avg       0.71      0.41      0.28       276
+           0       0.28      0.96      0.44        54
+           1       0.88      0.10      0.18       148
+    accuracy                           0.33       202
+   macro avg       0.58      0.53      0.31       202
+weighted avg       0.72      0.33      0.25       202
 </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.98      0.47      0.64       218
-           1       0.14      0.90      0.25        21
-    accuracy                           0.51       239
-   macro avg       0.56      0.69      0.44       239
-weighted avg       0.91      0.51      0.60       239
+           0       0.98      0.34      0.50       158
+           1       0.29      0.98      0.45        44
+    accuracy                           0.48       202
+   macro avg       0.64      0.66      0.47       202
+weighted avg       0.83      0.48      0.49       202
 </t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      0.47      0.64       222
-           1       0.13      1.00      0.23        17
-    accuracy                           0.51       239
-   macro avg       0.56      0.74      0.43       239
-weighted avg       0.94      0.51      0.61       239
+           0       0.96      0.31      0.46       170
+           1       0.20      0.94      0.33        32
+    accuracy                           0.41       202
+   macro avg       0.58      0.62      0.40       202
+weighted avg       0.84      0.41      0.44       202
 </t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.66      0.81      0.73       105
-           1       0.73      0.55      0.63        98
-    accuracy                           0.68       203
-   macro avg       0.69      0.68      0.68       203
-weighted avg       0.69      0.68      0.68       203
+           0       0.67      0.72      0.70        54
+           1       0.90      0.87      0.88       148
+    accuracy                           0.83       202
+   macro avg       0.78      0.80      0.79       202
+weighted avg       0.84      0.83      0.83       202
 </t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.38      1.00      0.55       105
-           1       0.00      0.00      0.00       171
-    accuracy                           0.38       276
-   macro avg       0.19      0.50      0.28       276
-weighted avg       0.14      0.38      0.21       276
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.45      0.99      0.62       105
-           1       0.88      0.05      0.10       134
-    accuracy                           0.46       239
-   macro avg       0.66      0.52      0.36       239
-weighted avg       0.69      0.46      0.33       239
+           0       0.28      0.98      0.44        54
+           1       0.93      0.09      0.17       148
+    accuracy                           0.33       202
+   macro avg       0.61      0.54      0.31       202
+weighted avg       0.76      0.33      0.24       202
 </t>
         </is>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.43      0.64      0.51        70
-           1       0.81      0.64      0.72       169
-    accuracy                           0.64       239
-   macro avg       0.62      0.64      0.62       239
-weighted avg       0.70      0.64      0.66       239
+           0       0.17      0.32      0.22        28
+           1       0.87      0.74      0.80       174
+    accuracy                           0.68       202
+   macro avg       0.52      0.53      0.51       202
+weighted avg       0.77      0.68      0.72       202
 </t>
         </is>
       </c>
@@ -1767,132 +1767,132 @@
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.71      0.77       126
-           1       0.62      0.79      0.70        77
-    accuracy                           0.74       203
-   macro avg       0.74      0.75      0.73       203
-weighted avg       0.76      0.74      0.74       203
+           0       0.74      0.74      0.74        54
+           1       0.91      0.91      0.91       148
+    accuracy                           0.86       202
+   macro avg       0.82      0.82      0.82       202
+weighted avg       0.86      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.44      0.59       215
-           1       0.30      0.84      0.44        61
-    accuracy                           0.53       276
-   macro avg       0.60      0.64      0.52       276
-weighted avg       0.77      0.53      0.56       276
+           0       0.93      0.33      0.49       150
+           1       0.32      0.92      0.48        52
+    accuracy                           0.49       202
+   macro avg       0.63      0.63      0.49       202
+weighted avg       0.77      0.49      0.49       202
 </t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.85      0.62      0.71       144
-           1       0.68      0.88      0.77       132
-    accuracy                           0.74       276
-   macro avg       0.76      0.75      0.74       276
-weighted avg       0.77      0.74      0.74       276
+           0       0.74      0.74      0.74        54
+           1       0.91      0.91      0.91       148
+    accuracy                           0.86       202
+   macro avg       0.82      0.82      0.82       202
+weighted avg       0.86      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.60      0.70       148
-         1.0       0.69      0.89      0.78       146
-    accuracy                           0.74       294
-   macro avg       0.77      0.75      0.74       294
-weighted avg       0.77      0.74      0.74       294
+         0.0       0.72      0.75      0.74        52
+         1.0       0.91      0.90      0.91       150
+    accuracy                           0.86       202
+   macro avg       0.82      0.82      0.82       202
+weighted avg       0.86      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.38      1.00      0.55       105
-           1       0.00      0.00      0.00       171
-    accuracy                           0.38       276
-   macro avg       0.19      0.50      0.28       276
-weighted avg       0.14      0.38      0.21       276
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.97      0.46      0.62       222
-           1       0.10      0.82      0.19        17
-    accuracy                           0.49       239
-   macro avg       0.54      0.64      0.40       239
-weighted avg       0.91      0.49      0.59       239
+           0       0.96      0.31      0.47       166
+           1       0.23      0.94      0.37        36
+    accuracy                           0.43       202
+   macro avg       0.60      0.63      0.42       202
+weighted avg       0.83      0.43      0.45       202
 </t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      0.44      0.61       239
-           1       0.00      0.00      0.00         0
-    accuracy                           0.44       239
-   macro avg       0.50      0.22      0.31       239
-weighted avg       1.00      0.44      0.61       239
+           0       0.93      0.31      0.46       163
+           1       0.24      0.90      0.37        39
+    accuracy                           0.42       202
+   macro avg       0.58      0.60      0.42       202
+weighted avg       0.79      0.42      0.44       202
 </t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.65      0.86      0.74       105
-           1       0.77      0.51      0.61        98
-    accuracy                           0.69       203
-   macro avg       0.71      0.68      0.68       203
-weighted avg       0.71      0.69      0.68       203
+           0       0.52      0.80      0.63        54
+           1       0.91      0.74      0.81       148
+    accuracy                           0.75       202
+   macro avg       0.72      0.77      0.72       202
+weighted avg       0.81      0.75      0.77       202
 </t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.38      1.00      0.55       105
-           1       0.00      0.00      0.00       171
-    accuracy                           0.38       276
-   macro avg       0.19      0.50      0.28       276
-weighted avg       0.14      0.38      0.21       276
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.44      1.00      0.61       105
-           1       0.00      0.00      0.00       134
-    accuracy                           0.44       239
-   macro avg       0.22      0.50      0.31       239
-weighted avg       0.19      0.44      0.27       239
+           0       0.27      1.00      0.42        54
+           1       0.00      0.00      0.00       148
+    accuracy                           0.27       202
+   macro avg       0.13      0.50      0.21       202
+weighted avg       0.07      0.27      0.11       202
 </t>
         </is>
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.01      0.50      0.02         2
-           1       0.99      0.56      0.72       237
-    accuracy                           0.56       239
-   macro avg       0.50      0.53      0.37       239
-weighted avg       0.98      0.56      0.71       239
+           0       0.00      0.00      0.00         0
+           1       1.00      0.73      0.85       202
+    accuracy                           0.73       202
+   macro avg       0.50      0.37      0.42       202
+weighted avg       1.00      0.73      0.85       202
 </t>
         </is>
       </c>
@@ -1921,132 +1921,132 @@
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.81      0.85       116
-           1       0.87      0.93      0.90       160
-    accuracy                           0.88       276
-   macro avg       0.88      0.87      0.88       276
-weighted avg       0.88      0.88      0.88       276
+           0       0.72      0.87      0.79        45
+           1       0.96      0.90      0.93       157
+    accuracy                           0.90       202
+   macro avg       0.84      0.89      0.86       202
+weighted avg       0.91      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00        15
-           1       0.70      1.00      0.82        35
-    accuracy                           0.70        50
-   macro avg       0.35      0.50      0.41        50
-weighted avg       0.49      0.70      0.58        50
+           0       0.87      0.87      0.87        54
+           1       0.95      0.95      0.95       148
+    accuracy                           0.93       202
+   macro avg       0.91      0.91      0.91       202
+weighted avg       0.93      0.93      0.93       202
 </t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00        32
-           1       0.36      1.00      0.53        18
-    accuracy                           0.36        50
-   macro avg       0.18      0.50      0.26        50
-weighted avg       0.13      0.36      0.19        50
+           0       0.69      0.70      0.69        53
+           1       0.89      0.89      0.89       149
+    accuracy                           0.84       202
+   macro avg       0.79      0.79      0.79       202
+weighted avg       0.84      0.84      0.84       202
 </t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.92      0.80      0.85       122
-         1.0       0.85      0.95      0.90       154
-    accuracy                           0.88       276
-   macro avg       0.89      0.87      0.88       276
-weighted avg       0.88      0.88      0.88       276
+         0.0       0.80      1.00      0.89        43
+         1.0       1.00      0.93      0.96       159
+    accuracy                           0.95       202
+   macro avg       0.90      0.97      0.93       202
+weighted avg       0.96      0.95      0.95       202
 </t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         0
-           1       1.00      0.66      0.80        50
-    accuracy                           0.66        50
-   macro avg       0.50      0.33      0.40        50
-weighted avg       1.00      0.66      0.80        50
+           0       0.50      0.76      0.60        54
+           1       0.89      0.72      0.80       148
+    accuracy                           0.73       202
+   macro avg       0.70      0.74      0.70       202
+weighted avg       0.79      0.73      0.75       202
 </t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00        34
-           1       0.32      1.00      0.48        16
-    accuracy                           0.32        50
-   macro avg       0.16      0.50      0.24        50
-weighted avg       0.10      0.32      0.16        50
+           0       0.98      0.46      0.63       114
+           1       0.59      0.99      0.74        88
+    accuracy                           0.69       202
+   macro avg       0.78      0.73      0.68       202
+weighted avg       0.81      0.69      0.68       202
 </t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00        15
-           1       0.70      1.00      0.82        35
-    accuracy                           0.70        50
-   macro avg       0.35      0.50      0.41        50
-weighted avg       0.49      0.70      0.58        50
+           0       0.89      0.66      0.76        73
+           1       0.83      0.95      0.89       129
+    accuracy                           0.85       202
+   macro avg       0.86      0.81      0.82       202
+weighted avg       0.85      0.85      0.84       202
 </t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.92      0.87       105
-           1       0.93      0.84      0.89       134
-    accuracy                           0.88       239
-   macro avg       0.88      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
+           0       1.00      0.85      0.92        54
+           1       0.95      1.00      0.97       148
+    accuracy                           0.96       202
+   macro avg       0.97      0.93      0.95       202
+weighted avg       0.96      0.96      0.96       202
 </t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.77      0.94      0.85       105
-           1       0.95      0.78      0.86       134
-    accuracy                           0.85       239
-   macro avg       0.86      0.86      0.85       239
-weighted avg       0.87      0.85      0.85       239
+           0       0.67      0.83      0.74        54
+           1       0.93      0.85      0.89       148
+    accuracy                           0.85       202
+   macro avg       0.80      0.84      0.82       202
+weighted avg       0.86      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.45      1.00      0.62       105
-           1       1.00      0.03      0.06       134
-    accuracy                           0.46       239
-   macro avg       0.72      0.51      0.34       239
-weighted avg       0.76      0.46      0.30       239
+           0       0.27      1.00      0.43        54
+           1       1.00      0.03      0.05       148
+    accuracy                           0.29       202
+   macro avg       0.64      0.51      0.24       202
+weighted avg       0.81      0.29      0.15       202
 </t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.71      0.95      0.82       105
-           1       0.95      0.70      0.81       134
-    accuracy                           0.81       239
-   macro avg       0.83      0.83      0.81       239
-weighted avg       0.85      0.81      0.81       239
+           0       0.60      0.91      0.72        54
+           1       0.96      0.78      0.86       148
+    accuracy                           0.81       202
+   macro avg       0.78      0.84      0.79       202
+weighted avg       0.86      0.81      0.82       202
 </t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.79      0.77       100
-           1       0.84      0.81      0.83       139
-    accuracy                           0.80       239
-   macro avg       0.80      0.80      0.80       239
-weighted avg       0.81      0.80      0.80       239
+           0       0.78      0.69      0.73        61
+           1       0.87      0.91      0.89       141
+    accuracy                           0.85       202
+   macro avg       0.82      0.80      0.81       202
+weighted avg       0.84      0.85      0.84       202
 </t>
         </is>
       </c>
@@ -2061,48 +2061,176 @@
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.62      0.75       162
-           1       0.54      0.94      0.68        77
-    accuracy                           0.72       239
-   macro avg       0.74      0.78      0.72       239
-weighted avg       0.82      0.72      0.73       239
+           0       0.80      0.86      0.83        50
+           1       0.95      0.93      0.94       152
+    accuracy                           0.91       202
+   macro avg       0.87      0.89      0.88       202
+weighted avg       0.91      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.78      0.84       122
-           1       0.80      0.91      0.85       117
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.84       239
-weighted avg       0.85      0.85      0.84       239
+           0       0.89      0.69      0.77        70
+           1       0.85      0.95      0.90       132
+    accuracy                           0.86       202
+   macro avg       0.87      0.82      0.84       202
+weighted avg       0.86      0.86      0.86       202
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.92      0.81      0.86       120
-           1       0.83      0.93      0.88       119
-    accuracy                           0.87       239
-   macro avg       0.88      0.87      0.87       239
-weighted avg       0.88      0.87      0.87       239
+           0       0.83      0.60      0.70        75
+           1       0.80      0.93      0.86       127
+    accuracy                           0.81       202
+   macro avg       0.82      0.76      0.78       202
+weighted avg       0.81      0.81      0.80       202
 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.89      0.80      0.84       116
-         1.0       0.83      0.90      0.86       123
-    accuracy                           0.85       239
-   macro avg       0.86      0.85      0.85       239
-weighted avg       0.86      0.85      0.85       239
+         0.0       0.80      0.96      0.87        45
+         1.0       0.99      0.93      0.96       157
+    accuracy                           0.94       202
+   macro avg       0.89      0.94      0.91       202
+weighted avg       0.94      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.67      0.78        75
+           1       0.83      0.97      0.89       127
+    accuracy                           0.86       202
+   macro avg       0.88      0.82      0.83       202
+weighted avg       0.87      0.86      0.85       202
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.98      0.58      0.73        91
+           1       0.74      0.99      0.85       111
+    accuracy                           0.81       202
+   macro avg       0.86      0.79      0.79       202
+weighted avg       0.85      0.81      0.80       202
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.85      0.65      0.74        71
+           1       0.83      0.94      0.88       131
+    accuracy                           0.84       202
+   macro avg       0.84      0.79      0.81       202
+weighted avg       0.84      0.84      0.83       202
+</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.83      0.96      0.89        47
+           1       0.99      0.94      0.96       155
+    accuracy                           0.95       202
+   macro avg       0.91      0.95      0.93       202
+weighted avg       0.95      0.95      0.95       202
+</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.63      0.74        78
+           1       0.80      0.96      0.87       124
+    accuracy                           0.83       202
+   macro avg       0.86      0.79      0.81       202
+weighted avg       0.84      0.83      0.82       202
+</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.65      0.76        77
+           1       0.82      0.97      0.89       125
+    accuracy                           0.85       202
+   macro avg       0.87      0.81      0.82       202
+weighted avg       0.86      0.85      0.84       202
+</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.78      0.64      0.70        66
+           1       0.84      0.91      0.87       136
+    accuracy                           0.82       202
+   macro avg       0.81      0.77      0.79       202
+weighted avg       0.82      0.82      0.82       202
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>backward selection</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.72      0.91      0.80        43
+           1       0.97      0.91      0.94       159
+    accuracy                           0.91       202
+   macro avg       0.85      0.91      0.87       202
+weighted avg       0.92      0.91      0.91       202
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.87      0.80      0.83        59
+           1       0.92      0.95      0.93       143
+    accuracy                           0.91       202
+   macro avg       0.89      0.87      0.88       202
+weighted avg       0.90      0.91      0.90       202
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.78      0.82      0.80        51
+           1       0.94      0.92      0.93       151
+    accuracy                           0.90       202
+   macro avg       0.86      0.87      0.86       202
+weighted avg       0.90      0.90      0.90       202
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.93      0.75      0.83       130
+         1.0       0.76      0.94      0.84       109
+    accuracy                           0.84       239
+   macro avg       0.85      0.84      0.84       239
+weighted avg       0.85      0.84      0.84       239
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.93      0.77      0.84       128
@@ -2113,134 +2241,6 @@
 </t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.68      0.79       145
-           1       0.66      0.94      0.77        94
-    accuracy                           0.78       239
-   macro avg       0.80      0.81      0.78       239
-weighted avg       0.83      0.78      0.78       239
-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.70      0.81       145
-           1       0.67      0.96      0.79        94
-    accuracy                           0.80       239
-   macro avg       0.82      0.83      0.80       239
-weighted avg       0.85      0.80      0.80       239
-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.83      0.87       114
-           1       0.86      0.92      0.89       125
-    accuracy                           0.88       239
-   macro avg       0.88      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.80      0.86       123
-           1       0.81      0.94      0.87       116
-    accuracy                           0.87       239
-   macro avg       0.87      0.87      0.87       239
-weighted avg       0.88      0.87      0.87       239
-</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.68      0.79       144
-           1       0.66      0.93      0.77        95
-    accuracy                           0.78       239
-   macro avg       0.80      0.80      0.78       239
-weighted avg       0.82      0.78      0.78       239
-</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.75      0.79       114
-           1       0.79      0.85      0.82       125
-    accuracy                           0.80       239
-   macro avg       0.81      0.80      0.80       239
-weighted avg       0.80      0.80      0.80       239
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>backward selection</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.81      0.82       109
-           1       0.84      0.87      0.86       130
-    accuracy                           0.84       239
-   macro avg       0.84      0.84      0.84       239
-weighted avg       0.84      0.84      0.84       239
-</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.78      0.83       121
-           1       0.80      0.91      0.85       118
-    accuracy                           0.84       239
-   macro avg       0.85      0.84      0.84       239
-weighted avg       0.85      0.84      0.84       239
-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.73      0.75      0.74       102
-           1       0.81      0.80      0.80       137
-    accuracy                           0.78       239
-   macro avg       0.77      0.78      0.77       239
-weighted avg       0.78      0.78      0.78       239
-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.75      0.83       130
-         1.0       0.76      0.94      0.84       109
-    accuracy                           0.84       239
-   macro avg       0.85      0.84      0.84       239
-weighted avg       0.85      0.84      0.84       239
-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.77      0.84       128
-           1       0.78      0.94      0.85       111
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.86      0.85      0.84       239
-</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
@@ -2317,132 +2317,132 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.76      0.81       118
-           1       0.79      0.88      0.83       121
-    accuracy                           0.82       239
-   macro avg       0.82      0.82      0.82       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.72      0.89      0.80        44
+           1       0.97      0.91      0.93       158
+    accuracy                           0.90       202
+   macro avg       0.84      0.90      0.87       202
+weighted avg       0.91      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.79      0.83       118
-           1       0.81      0.90      0.85       121
-    accuracy                           0.85       239
-   macro avg       0.85      0.84      0.84       239
-weighted avg       0.85      0.85      0.84       239
+           0       0.85      0.68      0.75        68
+           1       0.85      0.94      0.89       134
+    accuracy                           0.85       202
+   macro avg       0.85      0.81      0.82       202
+weighted avg       0.85      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.78      0.82       117
-           1       0.81      0.89      0.84       122
-    accuracy                           0.83       239
-   macro avg       0.84      0.83      0.83       239
-weighted avg       0.84      0.83      0.83       239
+           0       0.85      0.94      0.89        49
+           1       0.98      0.95      0.96       153
+    accuracy                           0.95       202
+   macro avg       0.92      0.94      0.93       202
+weighted avg       0.95      0.95      0.95       202
 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.90      0.77      0.83       122
-         1.0       0.84      0.93      0.88       154
-    accuracy                           0.86       276
-   macro avg       0.87      0.85      0.85       276
-weighted avg       0.86      0.86      0.86       276
+         0.0       0.85      0.96      0.90        48
+         1.0       0.99      0.95      0.97       154
+    accuracy                           0.95       202
+   macro avg       0.92      0.95      0.93       202
+weighted avg       0.95      0.95      0.95       202
 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.81      0.87       124
-           1       0.82      0.96      0.88       115
-    accuracy                           0.88       239
-   macro avg       0.89      0.88      0.88       239
-weighted avg       0.89      0.88      0.88       239
+           0       0.91      0.67      0.77        73
+           1       0.84      0.96      0.90       129
+    accuracy                           0.86       202
+   macro avg       0.87      0.82      0.83       202
+weighted avg       0.86      0.86      0.85       202
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.70      0.81       145
-           1       0.67      0.96      0.79        94
-    accuracy                           0.80       239
-   macro avg       0.82      0.83      0.80       239
-weighted avg       0.85      0.80      0.80       239
+           0       0.91      0.61      0.73        80
+           1       0.79      0.96      0.87       122
+    accuracy                           0.82       202
+   macro avg       0.85      0.79      0.80       202
+weighted avg       0.84      0.82      0.81       202
 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.73      0.82       136
-           1       0.72      0.94      0.82       103
-    accuracy                           0.82       239
-   macro avg       0.83      0.83      0.82       239
-weighted avg       0.85      0.82      0.82       239
+           0       0.89      0.65      0.75        74
+           1       0.82      0.95      0.88       128
+    accuracy                           0.84       202
+   macro avg       0.86      0.80      0.82       202
+weighted avg       0.85      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.83      0.87       116
-           1       0.85      0.93      0.89       123
-    accuracy                           0.88       239
-   macro avg       0.88      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
+           0       0.83      0.92      0.87        49
+           1       0.97      0.94      0.96       153
+    accuracy                           0.94       202
+   macro avg       0.90      0.93      0.92       202
+weighted avg       0.94      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.81      0.87       121
-           1       0.83      0.94      0.88       118
-    accuracy                           0.87       239
-   macro avg       0.88      0.88      0.87       239
-weighted avg       0.88      0.87      0.87       239
+           0       0.91      0.70      0.79        70
+           1       0.86      0.96      0.91       132
+    accuracy                           0.87       202
+   macro avg       0.88      0.83      0.85       202
+weighted avg       0.88      0.87      0.87       202
 </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.73      0.83       135
-           1       0.73      0.94      0.82       104
-    accuracy                           0.82       239
-   macro avg       0.84      0.84      0.82       239
-weighted avg       0.85      0.82      0.82       239
+           0       0.87      0.64      0.74        73
+           1       0.82      0.95      0.88       129
+    accuracy                           0.84       202
+   macro avg       0.85      0.79      0.81       202
+weighted avg       0.84      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.73      0.83       135
-           1       0.73      0.94      0.82       104
-    accuracy                           0.82       239
-   macro avg       0.84      0.84      0.82       239
-weighted avg       0.85      0.82      0.82       239
+           0       0.91      0.64      0.75        77
+           1       0.81      0.96      0.88       125
+    accuracy                           0.84       202
+   macro avg       0.86      0.80      0.81       202
+weighted avg       0.85      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.78      0.84       120
-           1       0.81      0.91      0.85       119
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.84       239
-weighted avg       0.85      0.85      0.84       239
+           0       0.81      0.75      0.78        59
+           1       0.90      0.93      0.91       143
+    accuracy                           0.88       202
+   macro avg       0.86      0.84      0.85       202
+weighted avg       0.87      0.88      0.87       202
 </t>
         </is>
       </c>
@@ -2456,132 +2456,132 @@
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.68      0.84      0.75        85
-           1       0.90      0.78      0.83       154
-    accuracy                           0.80       239
-   macro avg       0.79      0.81      0.79       239
-weighted avg       0.82      0.80      0.80       239
+           0       0.81      0.90      0.85        49
+           1       0.97      0.93      0.95       153
+    accuracy                           0.93       202
+   macro avg       0.89      0.92      0.90       202
+weighted avg       0.93      0.93      0.93       202
 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.83      0.78      0.81       111
-           1       0.82      0.86      0.84       128
-    accuracy                           0.82       239
-   macro avg       0.82      0.82      0.82       239
-weighted avg       0.82      0.82      0.82       239
+           0       0.81      0.70      0.75        63
+           1       0.87      0.93      0.90       139
+    accuracy                           0.86       202
+   macro avg       0.84      0.81      0.83       202
+weighted avg       0.85      0.86      0.85       202
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.72      0.62      0.67       123
-           1       0.65      0.75      0.70       116
-    accuracy                           0.68       239
-   macro avg       0.69      0.68      0.68       239
-weighted avg       0.69      0.68      0.68       239
+           0       0.69      0.73      0.70        51
+           1       0.91      0.89      0.90       151
+    accuracy                           0.85       202
+   macro avg       0.80      0.81      0.80       202
+weighted avg       0.85      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.85      0.91      0.88        98
-         1.0       0.95      0.91      0.93       178
-    accuracy                           0.91       276
-   macro avg       0.90      0.91      0.90       276
-weighted avg       0.91      0.91      0.91       276
+         0.0       0.83      0.96      0.89        47
+         1.0       0.99      0.94      0.96       155
+    accuracy                           0.95       202
+   macro avg       0.91      0.95      0.93       202
+weighted avg       0.95      0.95      0.95       202
 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.75      0.62      0.68       127
-           1       0.64      0.77      0.70       112
-    accuracy                           0.69       239
-   macro avg       0.70      0.69      0.69       239
-weighted avg       0.70      0.69      0.69       239
+           0       0.78      0.49      0.60        85
+           1       0.71      0.90      0.79       117
+    accuracy                           0.73       202
+   macro avg       0.74      0.70      0.70       202
+weighted avg       0.74      0.73      0.71       202
 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.76      0.82       124
-           1       0.78      0.90      0.84       115
-    accuracy                           0.83       239
-   macro avg       0.84      0.83      0.83       239
-weighted avg       0.84      0.83      0.83       239
+           0       0.87      0.53      0.66        88
+           1       0.72      0.94      0.82       114
+    accuracy                           0.76       202
+   macro avg       0.80      0.74      0.74       202
+weighted avg       0.79      0.76      0.75       202
 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.77      0.82       119
-           1       0.80      0.89      0.84       120
-    accuracy                           0.83       239
-   macro avg       0.84      0.83      0.83       239
-weighted avg       0.84      0.83      0.83       239
+           0       0.83      0.57      0.68        79
+           1       0.77      0.93      0.84       123
+    accuracy                           0.79       202
+   macro avg       0.80      0.75      0.76       202
+weighted avg       0.79      0.79      0.78       202
 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.82      0.84      0.83       102
-           1       0.88      0.86      0.87       137
-    accuracy                           0.85       239
-   macro avg       0.85      0.85      0.85       239
-weighted avg       0.85      0.85      0.85       239
+           0       0.85      0.90      0.88        51
+           1       0.97      0.95      0.96       151
+    accuracy                           0.94       202
+   macro avg       0.91      0.92      0.92       202
+weighted avg       0.94      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.74      0.80       123
-           1       0.76      0.88      0.82       116
-    accuracy                           0.81       239
-   macro avg       0.81      0.81      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.81      0.59      0.68        75
+           1       0.79      0.92      0.85       127
+    accuracy                           0.80       202
+   macro avg       0.80      0.75      0.77       202
+weighted avg       0.80      0.80      0.79       202
 </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      0.45      0.62       235
-           1       0.03      1.00      0.06         4
-    accuracy                           0.46       239
-   macro avg       0.51      0.72      0.34       239
-weighted avg       0.98      0.46      0.61       239
+           0       1.00      0.27      0.43       198
+           1       0.03      1.00      0.05         4
+    accuracy                           0.29       202
+   macro avg       0.51      0.64      0.24       202
+weighted avg       0.98      0.29      0.42       202
 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.74      0.81       126
-           1       0.75      0.89      0.82       113
-    accuracy                           0.81       239
-   macro avg       0.82      0.82      0.81       239
-weighted avg       0.82      0.81      0.81       239
+           0       0.78      0.58      0.66        73
+           1       0.79      0.91      0.84       129
+    accuracy                           0.79       202
+   macro avg       0.78      0.74      0.75       202
+weighted avg       0.79      0.79      0.78       202
 </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.78      0.83      0.80        99
-           1       0.87      0.84      0.85       140
-    accuracy                           0.83       239
-   macro avg       0.83      0.83      0.83       239
-weighted avg       0.83      0.83      0.83       239
+           0       0.96      0.34      0.50       152
+           1       0.32      0.96      0.48        50
+    accuracy                           0.50       202
+   macro avg       0.64      0.65      0.49       202
+weighted avg       0.80      0.50      0.50       202
 </t>
         </is>
       </c>
@@ -2595,132 +2595,132 @@
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.76      0.83       125
-           1       0.78      0.91      0.84       114
-    accuracy                           0.83       239
-   macro avg       0.84      0.84      0.83       239
-weighted avg       0.84      0.83      0.83       239
+           0       0.76      0.91      0.83        45
+           1       0.97      0.92      0.94       157
+    accuracy                           0.92       202
+   macro avg       0.87      0.91      0.89       202
+weighted avg       0.93      0.92      0.92       202
 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.90      0.81      0.85       116
-           1       0.84      0.91      0.87       123
-    accuracy                           0.86       239
-   macro avg       0.87      0.86      0.86       239
-weighted avg       0.86      0.86      0.86       239
+           0       0.81      0.80      0.81        55
+           1       0.93      0.93      0.93       147
+    accuracy                           0.90       202
+   macro avg       0.87      0.87      0.87       202
+weighted avg       0.90      0.90      0.90       202
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.83      0.87       116
-           1       0.85      0.93      0.89       123
-    accuracy                           0.88       239
-   macro avg       0.88      0.88      0.88       239
-weighted avg       0.88      0.88      0.88       239
+           0       0.85      0.81      0.83        57
+           1       0.93      0.94      0.94       145
+    accuracy                           0.91       202
+   macro avg       0.89      0.88      0.88       202
+weighted avg       0.90      0.91      0.91       202
 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.75      0.83       131
-         1.0       0.81      0.95      0.87       145
-    accuracy                           0.86       276
-   macro avg       0.87      0.85      0.85       276
-weighted avg       0.87      0.86      0.85       276
+         0.0       0.78      0.95      0.86        44
+         1.0       0.99      0.92      0.95       158
+    accuracy                           0.93       202
+   macro avg       0.88      0.94      0.91       202
+weighted avg       0.94      0.93      0.93       202
 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.68      0.78       142
-           1       0.81      0.96      0.88       207
-    accuracy                           0.84       349
-   macro avg       0.86      0.82      0.83       349
-weighted avg       0.85      0.84      0.84       349
+           0       0.89      0.65      0.75        74
+           1       0.82      0.95      0.88       128
+    accuracy                           0.84       202
+   macro avg       0.86      0.80      0.82       202
+weighted avg       0.85      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.57      0.72       177
-           1       0.69      0.98      0.81       172
-    accuracy                           0.77       349
-   macro avg       0.83      0.77      0.76       349
-weighted avg       0.83      0.77      0.76       349
+           0       0.93      0.56      0.70        89
+           1       0.74      0.96      0.84       113
+    accuracy                           0.79       202
+   macro avg       0.83      0.76      0.77       202
+weighted avg       0.82      0.79      0.78       202
 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.59      0.72       166
-           1       0.72      0.96      0.82       183
-    accuracy                           0.79       349
-   macro avg       0.83      0.78      0.77       349
-weighted avg       0.82      0.79      0.78       349
+           0       0.85      0.65      0.74        71
+           1       0.83      0.94      0.88       131
+    accuracy                           0.84       202
+   macro avg       0.84      0.79      0.81       202
+weighted avg       0.84      0.84      0.83       202
 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.74      0.82       130
-           1       0.86      0.96      0.91       219
-    accuracy                           0.88       349
-   macro avg       0.89      0.85      0.86       349
-weighted avg       0.88      0.88      0.87       349
+           0       0.89      0.89      0.89        54
+           1       0.96      0.96      0.96       148
+    accuracy                           0.94       202
+   macro avg       0.92      0.92      0.92       202
+weighted avg       0.94      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.68      0.78       141
-           1       0.82      0.96      0.88       208
-    accuracy                           0.85       349
-   macro avg       0.86      0.82      0.83       349
-weighted avg       0.86      0.85      0.84       349
+           0       0.87      0.68      0.76        69
+           1       0.85      0.95      0.90       133
+    accuracy                           0.86       202
+   macro avg       0.86      0.81      0.83       202
+weighted avg       0.86      0.86      0.85       202
 </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.52      0.68       191
-           1       0.63      0.97      0.76       158
-    accuracy                           0.72       349
-   macro avg       0.79      0.75      0.72       349
-weighted avg       0.81      0.72      0.71       349
+           0       0.81      0.51      0.62        87
+           1       0.71      0.91      0.80       115
+    accuracy                           0.74       202
+   macro avg       0.76      0.71      0.71       202
+weighted avg       0.75      0.74      0.72       202
 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.63      0.76       158
-           1       0.76      0.97      0.86       191
-    accuracy                           0.82       349
-   macro avg       0.86      0.80      0.81       349
-weighted avg       0.85      0.82      0.81       349
+           0       0.91      0.60      0.73        81
+           1       0.78      0.96      0.86       121
+    accuracy                           0.82       202
+   macro avg       0.85      0.78      0.79       202
+weighted avg       0.83      0.82      0.81       202
 </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.84      0.77      0.80       115
-           1       0.89      0.93      0.91       234
-    accuracy                           0.87       349
-   macro avg       0.86      0.85      0.85       349
-weighted avg       0.87      0.87      0.87       349
+           0       0.74      0.80      0.77        50
+           1       0.93      0.91      0.92       152
+    accuracy                           0.88       202
+   macro avg       0.84      0.85      0.84       202
+weighted avg       0.88      0.88      0.88       202
 </t>
         </is>
       </c>

--- a/smote_Result_sheet_pcos.xlsx
+++ b/smote_Result_sheet_pcos.xlsx
@@ -1932,66 +1932,66 @@
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.87      0.87        54
-           1       0.95      0.95      0.95       148
-    accuracy                           0.93       202
-   macro avg       0.91      0.91      0.91       202
-weighted avg       0.93      0.93      0.93       202
+           0       0.87      0.77      0.82        61
+           1       0.91      0.95      0.93       141
+    accuracy                           0.90       202
+   macro avg       0.89      0.86      0.87       202
+weighted avg       0.89      0.90      0.89       202
 </t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.69      0.70      0.69        53
-           1       0.89      0.89      0.89       149
-    accuracy                           0.84       202
-   macro avg       0.79      0.79      0.79       202
-weighted avg       0.84      0.84      0.84       202
+           0       0.69      0.73      0.70        51
+           1       0.91      0.89      0.90       151
+    accuracy                           0.85       202
+   macro avg       0.80      0.81      0.80       202
+weighted avg       0.85      0.85      0.85       202
 </t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.80      1.00      0.89        43
-         1.0       1.00      0.93      0.96       159
-    accuracy                           0.95       202
-   macro avg       0.90      0.97      0.93       202
-weighted avg       0.96      0.95      0.95       202
+         0.0       0.78      1.00      0.88        42
+         1.0       1.00      0.93      0.96       160
+    accuracy                           0.94       202
+   macro avg       0.89      0.96      0.92       202
+weighted avg       0.95      0.94      0.94       202
 </t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.50      0.76      0.60        54
-           1       0.89      0.72      0.80       148
-    accuracy                           0.73       202
-   macro avg       0.70      0.74      0.70       202
-weighted avg       0.79      0.73      0.75       202
+           0       0.59      0.76      0.66        54
+           1       0.90      0.80      0.85       148
+    accuracy                           0.79       202
+   macro avg       0.74      0.78      0.76       202
+weighted avg       0.82      0.79      0.80       202
 </t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.98      0.46      0.63       114
-           1       0.59      0.99      0.74        88
-    accuracy                           0.69       202
-   macro avg       0.78      0.73      0.68       202
-weighted avg       0.81      0.69      0.68       202
+           0       0.98      0.48      0.65       110
+           1       0.61      0.99      0.76        92
+    accuracy                           0.71       202
+   macro avg       0.80      0.74      0.70       202
+weighted avg       0.81      0.71      0.70       202
 </t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.89      0.66      0.76        73
-           1       0.83      0.95      0.89       129
+           0       0.89      0.67      0.76        72
+           1       0.84      0.95      0.89       130
     accuracy                           0.85       202
-   macro avg       0.86      0.81      0.82       202
-weighted avg       0.85      0.85      0.84       202
+   macro avg       0.86      0.81      0.83       202
+weighted avg       0.86      0.85      0.85       202
 </t>
         </is>
       </c>
@@ -2009,44 +2009,44 @@
       <c r="J13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.67      0.83      0.74        54
-           1       0.93      0.85      0.89       148
-    accuracy                           0.85       202
-   macro avg       0.80      0.84      0.82       202
-weighted avg       0.86      0.85      0.85       202
+           0       0.73      0.83      0.78        54
+           1       0.94      0.89      0.91       148
+    accuracy                           0.87       202
+   macro avg       0.83      0.86      0.84       202
+weighted avg       0.88      0.87      0.87       202
 </t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.27      1.00      0.43        54
-           1       1.00      0.03      0.05       148
-    accuracy                           0.29       202
-   macro avg       0.64      0.51      0.24       202
-weighted avg       0.81      0.29      0.15       202
+           0       0.27      1.00      0.42        54
+           1       1.00      0.01      0.01       148
+    accuracy                           0.27       202
+   macro avg       0.63      0.50      0.22       202
+weighted avg       0.80      0.27      0.12       202
 </t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.60      0.91      0.72        54
-           1       0.96      0.78      0.86       148
-    accuracy                           0.81       202
-   macro avg       0.78      0.84      0.79       202
-weighted avg       0.86      0.81      0.82       202
+           0       0.63      0.91      0.74        54
+           1       0.96      0.80      0.87       148
+    accuracy                           0.83       202
+   macro avg       0.79      0.86      0.81       202
+weighted avg       0.87      0.83      0.84       202
 </t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.78      0.69      0.73        61
-           1       0.87      0.91      0.89       141
-    accuracy                           0.85       202
-   macro avg       0.82      0.80      0.81       202
-weighted avg       0.84      0.85      0.84       202
+           0       0.78      0.74      0.76        57
+           1       0.90      0.92      0.91       145
+    accuracy                           0.87       202
+   macro avg       0.84      0.83      0.83       202
+weighted avg       0.86      0.87      0.87       202
 </t>
         </is>
       </c>
